--- a/REGRAS.xlsx
+++ b/REGRAS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dimensão 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="43">
   <si>
     <t>1. as VA utilizaram slides com textos e imagens que favoreceram a aprendizagem.</t>
   </si>
@@ -303,9 +303,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -336,14 +338,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink Visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Saída" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -646,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -659,27 +663,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -964,7 +968,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>9</v>
@@ -1276,11 +1280,11 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
@@ -1933,40 +1937,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E73" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="106.5" customWidth="1"/>
-    <col min="4" max="4" width="106" customWidth="1"/>
+    <col min="1" max="1" width="76.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="72.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -1994,55 +2000,75 @@
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
@@ -2070,55 +2096,75 @@
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -2146,55 +2192,75 @@
       <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
@@ -2222,55 +2288,75 @@
       <c r="A30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -2298,55 +2384,79 @@
       <c r="A38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B43" s="9"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
@@ -2374,56 +2484,77 @@
       <c r="A46" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="9"/>
-    </row>
+      <c r="E50" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>10</v>
@@ -2450,55 +2581,75 @@
       <c r="A54" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="5"/>
+      <c r="B54" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="5"/>
+      <c r="B55" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="9"/>
+      <c r="B58" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D58" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
@@ -2526,55 +2677,75 @@
       <c r="A62" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="5"/>
+      <c r="B64" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D66" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="9"/>
+      <c r="E66" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
@@ -2602,55 +2773,75 @@
       <c r="A70" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="5"/>
+      <c r="B70" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C70" s="2"/>
       <c r="D70" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="5"/>
+      <c r="B71" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C71" s="2"/>
       <c r="D71" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="5"/>
+      <c r="B72" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C72" s="2"/>
       <c r="D72" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="5"/>
+      <c r="B73" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C73" s="2"/>
       <c r="D73" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="9"/>
+      <c r="B74" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D74" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="9"/>
+      <c r="E74" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
@@ -2678,55 +2869,75 @@
       <c r="A78" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="5"/>
+      <c r="B78" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C78" s="2"/>
       <c r="D78" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B79" s="5"/>
+      <c r="B79" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C79" s="2"/>
       <c r="D79" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="5"/>
+      <c r="B80" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C80" s="2"/>
       <c r="D80" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="81" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B81" s="5"/>
+      <c r="B81" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C81" s="2"/>
       <c r="D81" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D82" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="9"/>
+      <c r="E82" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
@@ -2754,55 +2965,75 @@
       <c r="A86" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="5"/>
+      <c r="B86" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C86" s="2"/>
       <c r="D86" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="5"/>
+      <c r="E86" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="5"/>
+      <c r="B87" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C87" s="2"/>
       <c r="D87" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="5"/>
+      <c r="E87" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="5"/>
+      <c r="B88" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C88" s="2"/>
       <c r="D88" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E88" s="5"/>
+      <c r="E88" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="89" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="5"/>
+      <c r="B89" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C89" s="2"/>
       <c r="D89" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="5"/>
+      <c r="E89" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="9"/>
+      <c r="B90" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E90" s="9"/>
+      <c r="E90" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -2830,55 +3061,75 @@
       <c r="A94" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="5"/>
+      <c r="B94" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C94" s="2"/>
       <c r="D94" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="5"/>
+      <c r="E94" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B95" s="5"/>
+      <c r="B95" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C95" s="2"/>
       <c r="D95" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="5"/>
+      <c r="E95" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="5"/>
+      <c r="B96" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C96" s="2"/>
       <c r="D96" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E96" s="5"/>
+      <c r="E96" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="97" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B97" s="5"/>
+      <c r="B97" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C97" s="2"/>
       <c r="D97" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E97" s="5"/>
+      <c r="E97" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="9"/>
+      <c r="B98" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D98" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E98" s="9"/>
+      <c r="E98" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
@@ -2906,290 +3157,82 @@
       <c r="A102" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="5"/>
+      <c r="B102" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C102" s="2"/>
       <c r="D102" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B103" s="5"/>
+      <c r="B103" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C103" s="2"/>
       <c r="D103" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B104" s="5"/>
+      <c r="B104" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C104" s="2"/>
       <c r="D104" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E104" s="5"/>
+      <c r="E104" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="105" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B105" s="5"/>
+      <c r="B105" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C105" s="2"/>
       <c r="D105" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E105" s="5"/>
+      <c r="E105" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="9"/>
+      <c r="B106" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D106" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="9"/>
-    </row>
-    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="7"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="5"/>
-    </row>
-    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="5"/>
-    </row>
-    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" s="5"/>
-    </row>
-    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" s="5"/>
-    </row>
-    <row r="113" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" s="5"/>
-    </row>
-    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="9"/>
-      <c r="D114" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E114" s="9"/>
-    </row>
-    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="5"/>
-    </row>
-    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="5"/>
-    </row>
-    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E119" s="5"/>
-    </row>
-    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="5"/>
-    </row>
-    <row r="121" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" s="5"/>
-    </row>
-    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" s="9"/>
-      <c r="D122" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" s="9"/>
-    </row>
-    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="7"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="5"/>
-    </row>
-    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" s="5"/>
-    </row>
-    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" s="5"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127" s="5"/>
-    </row>
-    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="5"/>
-    </row>
-    <row r="129" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129" s="5"/>
-    </row>
-    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B130" s="9"/>
-      <c r="D130" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="9"/>
+      <c r="E106" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B10 B38:B42 B86:B90 B102:B106 E102:E106 E6:E10 E86:E90 B14:B18 E14:E18 B22:B26 E38:E42 E22:E26 B30:B34 E30:E34 B46:B50 E46:E50 B54:B58 B110:B114 B70:B74 E54:E58 B62:B66 E62:E66 E70:E74 B78:B82 E78:E82 B94:B98 E110:E114 E94:E98 B118:B122 E118:E122 B126:B130 E126:E130">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B18 B22:B26 B46:B50 B6:B10 B86:B90 B78:B82 B94:B98 B102:B106 B38:B43 B70:B74 B54:B58 B62:B66 B30:B34 E86:E90 E78:E82 E94:E98 E102:E106 E30:E34 E14:E18 E22:E26 E6:E10 E54:E58 E70:E74 E62:E66 E38:E43 E46:E50">
       <formula1>op</formula1>
     </dataValidation>
   </dataValidations>
@@ -3201,38 +3244,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="106.5" customWidth="1"/>
-    <col min="4" max="4" width="106" customWidth="1"/>
+    <col min="1" max="1" width="76" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -3260,55 +3304,75 @@
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
@@ -3336,55 +3400,75 @@
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -3412,55 +3496,75 @@
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
@@ -3488,55 +3592,75 @@
       <c r="A30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -3564,55 +3688,79 @@
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B43" s="9"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
@@ -3640,55 +3788,79 @@
       <c r="A46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="12"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
@@ -3716,55 +3888,75 @@
       <c r="A54" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="5"/>
+      <c r="B54" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="5"/>
+      <c r="B55" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="9"/>
+      <c r="B58" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D58" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
@@ -3792,55 +3984,75 @@
       <c r="A62" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="5"/>
+      <c r="B64" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D66" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="9"/>
+      <c r="E66" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
@@ -3868,55 +4080,75 @@
       <c r="A70" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="5"/>
+      <c r="B70" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C70" s="2"/>
       <c r="D70" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="5"/>
+      <c r="B71" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C71" s="2"/>
       <c r="D71" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="5"/>
+      <c r="B72" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C72" s="2"/>
       <c r="D72" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="5"/>
+      <c r="B73" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C73" s="2"/>
       <c r="D73" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="9"/>
+      <c r="B74" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D74" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="9"/>
+      <c r="E74" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
@@ -3944,55 +4176,75 @@
       <c r="A78" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="5"/>
+      <c r="B78" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C78" s="2"/>
       <c r="D78" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="5"/>
+      <c r="B79" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C79" s="2"/>
       <c r="D79" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B80" s="5"/>
+      <c r="B80" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C80" s="2"/>
       <c r="D80" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="81" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="5"/>
+      <c r="B81" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C81" s="2"/>
       <c r="D81" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D82" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="9"/>
+      <c r="E82" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
@@ -4020,55 +4272,75 @@
       <c r="A86" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="5"/>
+      <c r="B86" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C86" s="2"/>
       <c r="D86" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="5"/>
+      <c r="E86" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="5"/>
+      <c r="B87" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C87" s="2"/>
       <c r="D87" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E87" s="5"/>
+      <c r="E87" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="5"/>
+      <c r="B88" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C88" s="2"/>
       <c r="D88" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E88" s="5"/>
+      <c r="E88" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="89" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B89" s="5"/>
+      <c r="B89" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C89" s="2"/>
       <c r="D89" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="5"/>
+      <c r="E89" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="9"/>
+      <c r="B90" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E90" s="9"/>
+      <c r="E90" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -4096,55 +4368,75 @@
       <c r="A94" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B94" s="5"/>
+      <c r="B94" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C94" s="2"/>
       <c r="D94" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="5"/>
+      <c r="E94" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B95" s="5"/>
+      <c r="B95" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C95" s="2"/>
       <c r="D95" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E95" s="5"/>
+      <c r="E95" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B96" s="5"/>
+      <c r="B96" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C96" s="2"/>
       <c r="D96" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E96" s="5"/>
+      <c r="E96" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="97" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B97" s="5"/>
+      <c r="B97" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C97" s="2"/>
       <c r="D97" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E97" s="5"/>
+      <c r="E97" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="9"/>
+      <c r="B98" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D98" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E98" s="9"/>
+      <c r="E98" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
@@ -4172,290 +4464,256 @@
       <c r="A102" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="5"/>
+      <c r="B102" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C102" s="2"/>
       <c r="D102" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="5"/>
+      <c r="B103" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C103" s="2"/>
       <c r="D103" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B104" s="5"/>
+      <c r="B104" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C104" s="2"/>
       <c r="D104" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E104" s="5"/>
+      <c r="E104" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="105" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B105" s="5"/>
+      <c r="B105" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C105" s="2"/>
       <c r="D105" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E105" s="5"/>
+      <c r="E105" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="9"/>
+      <c r="B106" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D106" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="9"/>
+      <c r="E106" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="C108" s="1"/>
       <c r="D108" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E108" s="8" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
-      <c r="B109" s="5"/>
       <c r="C109" s="1"/>
       <c r="D109" s="7"/>
-      <c r="E109" s="5"/>
     </row>
     <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B110" s="5"/>
       <c r="C110" s="2"/>
       <c r="D110" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E110" s="5"/>
     </row>
     <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B111" s="5"/>
       <c r="C111" s="2"/>
       <c r="D111" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E111" s="5"/>
     </row>
     <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B112" s="5"/>
       <c r="C112" s="2"/>
       <c r="D112" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E112" s="5"/>
-    </row>
-    <row r="113" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B113" s="5"/>
       <c r="C113" s="2"/>
       <c r="D113" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="5"/>
-    </row>
-    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="9"/>
       <c r="D114" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="9"/>
-    </row>
-    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>2</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E116" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
-      <c r="B117" s="5"/>
       <c r="C117" s="1"/>
       <c r="D117" s="7"/>
-      <c r="E117" s="5"/>
-    </row>
-    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="5"/>
       <c r="C118" s="2"/>
       <c r="D118" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E118" s="5"/>
-    </row>
-    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B119" s="5"/>
       <c r="C119" s="2"/>
       <c r="D119" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E119" s="5"/>
-    </row>
-    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B120" s="5"/>
       <c r="C120" s="2"/>
       <c r="D120" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E120" s="5"/>
-    </row>
-    <row r="121" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B121" s="5"/>
       <c r="C121" s="2"/>
       <c r="D121" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E121" s="5"/>
-    </row>
-    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B122" s="9"/>
       <c r="D122" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E122" s="9"/>
-    </row>
-    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>2</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E124" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
-      <c r="B125" s="5"/>
       <c r="C125" s="1"/>
       <c r="D125" s="7"/>
-      <c r="E125" s="5"/>
-    </row>
-    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B126" s="5"/>
       <c r="C126" s="2"/>
       <c r="D126" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E126" s="5"/>
-    </row>
-    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B127" s="5"/>
       <c r="C127" s="2"/>
       <c r="D127" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E127" s="5"/>
-    </row>
-    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B128" s="5"/>
       <c r="C128" s="2"/>
       <c r="D128" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E128" s="5"/>
-    </row>
-    <row r="129" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B129" s="5"/>
       <c r="C129" s="2"/>
       <c r="D129" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E129" s="5"/>
-    </row>
-    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="9"/>
       <c r="D130" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E130" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B10 B38:B42 B22:B26 B70:B74 B86:B90 E6:E10 B14:B18 E22:E26 E14:E18 E70:E74 B78:B82 E86:E90 E78:E82 B94:B98 B30:B34 E30:E34 B54:B58 E94:E98 E38:E42 B46:B50 E54:E58 E46:E50 B62:B66 E62:E66 B102:B106 B118:B122 E102:E106 B110:B114 E118:E122 E110:E114 B126:B130 E126:E130">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B58 B62:B66 B30:B34 B14:B18 B22:B26 B46:B50 B6:B10 B86:B90 B78:B82 B94:B98 B102:B106 B38:B43 B70:B74 E86:E90 E78:E82 E94:E98 E102:E106 E30:E34 E14:E18 E22:E26 E6:E10 E54:E58 E70:E74 E62:E66 E38:E43 E46:E50">
       <formula1>op</formula1>
     </dataValidation>
   </dataValidations>
@@ -4478,27 +4736,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -5744,27 +6002,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -7010,27 +7268,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -8279,27 +8537,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">

--- a/REGRAS.xlsx
+++ b/REGRAS.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28315"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptakaki/Documents/!!patricia/!ICV/2019/artigo final/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="495" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="2420" yWindow="500" windowWidth="26840" windowHeight="19540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Dimensão 1 VA" sheetId="1" r:id="rId1"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="43">
   <si>
     <t>1. as VA utilizaram slides com textos e imagens que favoreceram a aprendizagem.</t>
   </si>
@@ -168,8 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,20 +417,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="16">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink seguido" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink seguido" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink seguido" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink seguido" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink seguido" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink seguido" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Saída" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -482,7 +487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -517,7 +522,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -725,22 +730,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E4" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="85.42578125" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="85.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -749,21 +754,21 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -784,7 +789,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
@@ -797,7 +802,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1">
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -818,7 +823,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1">
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
@@ -839,7 +844,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -860,7 +865,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1">
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -875,7 +880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1">
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -889,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
@@ -903,13 +908,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="5"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -923,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -937,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
@@ -951,7 +956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
@@ -965,7 +970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -979,7 +984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>3</v>
       </c>
@@ -993,13 +998,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="5"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>9</v>
       </c>
@@ -1055,7 +1060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>3</v>
       </c>
@@ -1083,13 +1088,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>1</v>
       </c>
@@ -1117,7 +1122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>9</v>
       </c>
@@ -1145,7 +1150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1174,14 +1179,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -1211,7 +1216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>9</v>
       </c>
@@ -1241,7 +1246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -1255,13 +1260,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75">
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="9"/>
       <c r="D43" s="6"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>3</v>
       </c>
@@ -1276,14 +1281,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>1</v>
       </c>
@@ -1313,7 +1318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>9</v>
       </c>
@@ -1343,7 +1348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -1357,14 +1362,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75">
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>3</v>
       </c>
@@ -1378,13 +1383,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="5"/>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
@@ -1412,7 +1417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>8</v>
       </c>
@@ -1426,7 +1431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>9</v>
       </c>
@@ -1440,7 +1445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75">
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -1454,7 +1459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75">
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>3</v>
       </c>
@@ -1468,13 +1473,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="5"/>
       <c r="D61" s="7"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>1</v>
       </c>
@@ -1502,7 +1507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>9</v>
       </c>
@@ -1530,7 +1535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75">
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -1544,7 +1549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75">
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>3</v>
       </c>
@@ -1558,13 +1563,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="5"/>
       <c r="D69" s="7"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>1</v>
       </c>
@@ -1592,7 +1597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>8</v>
       </c>
@@ -1606,7 +1611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>9</v>
       </c>
@@ -1620,7 +1625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75">
+    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>4</v>
       </c>
@@ -1634,7 +1639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75">
+    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>3</v>
       </c>
@@ -1649,14 +1654,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="7"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>1</v>
       </c>
@@ -1686,7 +1691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>8</v>
       </c>
@@ -1701,7 +1706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>9</v>
       </c>
@@ -1716,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75">
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
@@ -1730,7 +1735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75">
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>3</v>
       </c>
@@ -1744,13 +1749,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="5"/>
       <c r="D85" s="7"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>0</v>
       </c>
@@ -1764,7 +1769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>1</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>8</v>
       </c>
@@ -1792,7 +1797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>9</v>
       </c>
@@ -1806,7 +1811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75">
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>4</v>
       </c>
@@ -1820,7 +1825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75">
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>3</v>
       </c>
@@ -1834,13 +1839,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="5"/>
       <c r="D93" s="7"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>0</v>
       </c>
@@ -1854,7 +1859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>1</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>8</v>
       </c>
@@ -1882,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>9</v>
       </c>
@@ -1896,7 +1901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75">
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>4</v>
       </c>
@@ -1910,7 +1915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75">
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>3</v>
       </c>
@@ -1924,13 +1929,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="5"/>
       <c r="D101" s="7"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>0</v>
       </c>
@@ -1944,7 +1949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>1</v>
       </c>
@@ -1958,7 +1963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>8</v>
       </c>
@@ -1972,7 +1977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>9</v>
       </c>
@@ -1986,7 +1991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75">
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>4</v>
       </c>
@@ -2014,22 +2019,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E138" sqref="E4:E138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="76.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="76.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="72.28515625" customWidth="1"/>
+    <col min="4" max="4" width="72.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -2037,19 +2042,19 @@
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -2064,14 +2069,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="15"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -2086,7 +2091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -2101,7 +2106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2116,7 +2121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
@@ -2131,7 +2136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -2145,10 +2150,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -2163,14 +2168,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="15"/>
       <c r="C13" s="1"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -2185,7 +2190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -2200,7 +2205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -2215,7 +2220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30">
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -2230,7 +2235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2244,10 +2249,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>10</v>
       </c>
@@ -2262,14 +2267,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="15"/>
       <c r="C21" s="1"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
@@ -2284,7 +2289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
@@ -2299,7 +2304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +2319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30">
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
@@ -2329,7 +2334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -2343,10 +2348,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>10</v>
       </c>
@@ -2361,14 +2366,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="15"/>
       <c r="C29" s="1"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>12</v>
       </c>
@@ -2383,7 +2388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>13</v>
       </c>
@@ -2398,7 +2403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>14</v>
       </c>
@@ -2413,7 +2418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30">
+    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>15</v>
       </c>
@@ -2428,7 +2433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -2442,10 +2447,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>10</v>
       </c>
@@ -2460,14 +2465,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="15"/>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>12</v>
       </c>
@@ -2482,7 +2487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -2497,7 +2502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>14</v>
       </c>
@@ -2512,7 +2517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30">
+    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>15</v>
       </c>
@@ -2527,7 +2532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -2541,11 +2546,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75">
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="16"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>10</v>
       </c>
@@ -2560,14 +2565,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="15"/>
       <c r="C45" s="1"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>12</v>
       </c>
@@ -2582,7 +2587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>13</v>
       </c>
@@ -2597,7 +2602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>14</v>
       </c>
@@ -2612,7 +2617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30">
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>15</v>
       </c>
@@ -2627,7 +2632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -2641,11 +2646,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="15.75">
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="19"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75">
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>10</v>
       </c>
@@ -2660,14 +2665,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="15"/>
       <c r="C53" s="1"/>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>12</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>13</v>
       </c>
@@ -2697,7 +2702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>14</v>
       </c>
@@ -2712,7 +2717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30">
+    <row r="57" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
@@ -2727,7 +2732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75">
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -2741,11 +2746,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75">
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75">
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>10</v>
       </c>
@@ -2760,14 +2765,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="15"/>
       <c r="C61" s="1"/>
       <c r="D61" s="7"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>12</v>
       </c>
@@ -2782,7 +2787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>13</v>
       </c>
@@ -2797,7 +2802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>14</v>
       </c>
@@ -2812,7 +2817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="30">
+    <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>15</v>
       </c>
@@ -2827,7 +2832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75">
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -2841,11 +2846,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="12" customFormat="1" ht="15.75">
+    <row r="67" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="20"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="1:5" ht="15.75">
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
@@ -2860,14 +2865,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="15"/>
       <c r="C69" s="1"/>
       <c r="D69" s="7"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>12</v>
       </c>
@@ -2882,7 +2887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>13</v>
       </c>
@@ -2897,7 +2902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>14</v>
       </c>
@@ -2912,7 +2917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30">
+    <row r="73" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>15</v>
       </c>
@@ -2927,7 +2932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75">
+    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>4</v>
       </c>
@@ -2941,10 +2946,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
     </row>
-    <row r="76" spans="1:5" ht="15.75">
+    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>10</v>
       </c>
@@ -2959,14 +2964,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="15"/>
       <c r="C77" s="1"/>
       <c r="D77" s="7"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>12</v>
       </c>
@@ -2981,7 +2986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>13</v>
       </c>
@@ -2996,7 +3001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>14</v>
       </c>
@@ -3011,7 +3016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30">
+    <row r="81" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>15</v>
       </c>
@@ -3026,7 +3031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75">
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
@@ -3040,10 +3045,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
     </row>
-    <row r="84" spans="1:5" ht="15.75">
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>10</v>
       </c>
@@ -3058,14 +3063,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="15"/>
       <c r="C85" s="1"/>
       <c r="D85" s="7"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>12</v>
       </c>
@@ -3080,7 +3085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>13</v>
       </c>
@@ -3095,7 +3100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>14</v>
       </c>
@@ -3110,7 +3115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30">
+    <row r="89" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>15</v>
       </c>
@@ -3125,7 +3130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75">
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>4</v>
       </c>
@@ -3139,10 +3144,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
     </row>
-    <row r="92" spans="1:5" ht="15.75">
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>10</v>
       </c>
@@ -3157,14 +3162,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="15"/>
       <c r="C93" s="1"/>
       <c r="D93" s="7"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>12</v>
       </c>
@@ -3179,7 +3184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>13</v>
       </c>
@@ -3194,7 +3199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>14</v>
       </c>
@@ -3209,7 +3214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="30">
+    <row r="97" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>15</v>
       </c>
@@ -3224,7 +3229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75">
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>4</v>
       </c>
@@ -3238,10 +3243,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
     </row>
-    <row r="100" spans="1:5" ht="15.75">
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>10</v>
       </c>
@@ -3256,14 +3261,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="15"/>
       <c r="C101" s="1"/>
       <c r="D101" s="7"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>12</v>
       </c>
@@ -3278,7 +3283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>13</v>
       </c>
@@ -3293,7 +3298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>14</v>
       </c>
@@ -3308,7 +3313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="30">
+    <row r="105" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>15</v>
       </c>
@@ -3323,7 +3328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75">
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>4</v>
       </c>
@@ -3337,10 +3342,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
     </row>
-    <row r="108" spans="1:5" ht="15.75">
+    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>10</v>
       </c>
@@ -3354,13 +3359,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="B109" s="15"/>
       <c r="D109" s="7"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>12</v>
       </c>
@@ -3374,7 +3379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>13</v>
       </c>
@@ -3388,7 +3393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>14</v>
       </c>
@@ -3402,7 +3407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="30">
+    <row r="113" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>15</v>
       </c>
@@ -3416,7 +3421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75">
+    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>4</v>
       </c>
@@ -3430,10 +3435,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
     </row>
-    <row r="116" spans="1:5" ht="15.75">
+    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>10</v>
       </c>
@@ -3447,13 +3452,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="15"/>
       <c r="D117" s="7"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>12</v>
       </c>
@@ -3467,7 +3472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>13</v>
       </c>
@@ -3481,7 +3486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>14</v>
       </c>
@@ -3495,7 +3500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="30">
+    <row r="121" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>15</v>
       </c>
@@ -3509,7 +3514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75">
+    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>4</v>
       </c>
@@ -3523,10 +3528,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B123" s="13"/>
     </row>
-    <row r="124" spans="1:5" ht="15.75">
+    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>10</v>
       </c>
@@ -3540,13 +3545,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="B125" s="15"/>
       <c r="D125" s="7"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>12</v>
       </c>
@@ -3560,7 +3565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>13</v>
       </c>
@@ -3574,7 +3579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>14</v>
       </c>
@@ -3588,7 +3593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30">
+    <row r="129" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
         <v>15</v>
       </c>
@@ -3602,7 +3607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75">
+    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>4</v>
       </c>
@@ -3616,7 +3621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75">
+    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>10</v>
       </c>
@@ -3630,13 +3635,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="B133" s="15"/>
       <c r="D133" s="7"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>12</v>
       </c>
@@ -3650,7 +3655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>13</v>
       </c>
@@ -3664,7 +3669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>14</v>
       </c>
@@ -3678,7 +3683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="30">
+    <row r="137" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
         <v>15</v>
       </c>
@@ -3692,7 +3697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75">
+    <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>4</v>
       </c>
@@ -3720,21 +3725,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView topLeftCell="A101" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="76" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -3743,21 +3748,21 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -3772,14 +3777,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="15"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -3794,7 +3799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -3809,7 +3814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -3824,7 +3829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -3839,7 +3844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -3853,10 +3858,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3871,14 +3876,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="15"/>
       <c r="C13" s="1"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
@@ -3893,7 +3898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -3908,7 +3913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
@@ -3923,7 +3928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30">
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -3938,7 +3943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -3952,10 +3957,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -3970,14 +3975,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="15"/>
       <c r="C21" s="1"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
@@ -3992,7 +3997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
@@ -4007,7 +4012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
@@ -4022,7 +4027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30">
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
@@ -4037,7 +4042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -4051,10 +4056,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
@@ -4069,14 +4074,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="15"/>
       <c r="C29" s="1"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>16</v>
       </c>
@@ -4091,7 +4096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
@@ -4106,7 +4111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>18</v>
       </c>
@@ -4121,7 +4126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30">
+    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>19</v>
       </c>
@@ -4136,7 +4141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -4150,10 +4155,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
@@ -4168,14 +4173,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="15"/>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -4190,7 +4195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
@@ -4205,7 +4210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>18</v>
       </c>
@@ -4220,7 +4225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30">
+    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>19</v>
       </c>
@@ -4235,7 +4240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -4249,11 +4254,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75">
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="16"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>11</v>
       </c>
@@ -4268,14 +4273,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="15"/>
       <c r="C45" s="1"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>16</v>
       </c>
@@ -4290,7 +4295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>17</v>
       </c>
@@ -4305,7 +4310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>18</v>
       </c>
@@ -4320,7 +4325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30">
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>19</v>
       </c>
@@ -4335,7 +4340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -4349,11 +4354,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="15.75">
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="19"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75">
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -4368,14 +4373,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="15"/>
       <c r="C53" s="1"/>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4390,7 +4395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>17</v>
       </c>
@@ -4405,7 +4410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>18</v>
       </c>
@@ -4420,7 +4425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30">
+    <row r="57" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>19</v>
       </c>
@@ -4435,7 +4440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75">
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -4449,11 +4454,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75">
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75">
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
@@ -4468,14 +4473,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="15"/>
       <c r="C61" s="1"/>
       <c r="D61" s="7"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>16</v>
       </c>
@@ -4490,7 +4495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>17</v>
       </c>
@@ -4505,7 +4510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>18</v>
       </c>
@@ -4520,7 +4525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="30">
+    <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>19</v>
       </c>
@@ -4535,7 +4540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75">
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -4549,11 +4554,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="12" customFormat="1" ht="15.75">
+    <row r="67" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="20"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="1:5" ht="15.75">
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>11</v>
       </c>
@@ -4568,14 +4573,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="15"/>
       <c r="C69" s="1"/>
       <c r="D69" s="7"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>16</v>
       </c>
@@ -4590,7 +4595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>17</v>
       </c>
@@ -4605,7 +4610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>18</v>
       </c>
@@ -4620,7 +4625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30">
+    <row r="73" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>19</v>
       </c>
@@ -4635,7 +4640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75">
+    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>4</v>
       </c>
@@ -4649,10 +4654,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
     </row>
-    <row r="76" spans="1:5" ht="15.75">
+    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>11</v>
       </c>
@@ -4667,14 +4672,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="15"/>
       <c r="C77" s="1"/>
       <c r="D77" s="7"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>16</v>
       </c>
@@ -4689,7 +4694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>17</v>
       </c>
@@ -4704,7 +4709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>18</v>
       </c>
@@ -4719,7 +4724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30">
+    <row r="81" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>19</v>
       </c>
@@ -4734,7 +4739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75">
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
@@ -4748,10 +4753,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
     </row>
-    <row r="84" spans="1:5" ht="15.75">
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>11</v>
       </c>
@@ -4766,14 +4771,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="15"/>
       <c r="C85" s="1"/>
       <c r="D85" s="7"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>16</v>
       </c>
@@ -4788,7 +4793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>17</v>
       </c>
@@ -4803,7 +4808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>18</v>
       </c>
@@ -4818,7 +4823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30">
+    <row r="89" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>19</v>
       </c>
@@ -4833,7 +4838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75">
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>4</v>
       </c>
@@ -4847,10 +4852,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
     </row>
-    <row r="92" spans="1:5" ht="15.75">
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>11</v>
       </c>
@@ -4865,14 +4870,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="15"/>
       <c r="C93" s="1"/>
       <c r="D93" s="7"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>16</v>
       </c>
@@ -4887,7 +4892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>17</v>
       </c>
@@ -4902,7 +4907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>18</v>
       </c>
@@ -4917,7 +4922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="30">
+    <row r="97" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>19</v>
       </c>
@@ -4932,7 +4937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75">
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>4</v>
       </c>
@@ -4946,10 +4951,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
     </row>
-    <row r="100" spans="1:5" ht="15.75">
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>11</v>
       </c>
@@ -4964,14 +4969,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="15"/>
       <c r="C101" s="1"/>
       <c r="D101" s="7"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>16</v>
       </c>
@@ -4986,7 +4991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>17</v>
       </c>
@@ -5001,7 +5006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>18</v>
       </c>
@@ -5016,7 +5021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="30">
+    <row r="105" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>19</v>
       </c>
@@ -5031,7 +5036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75">
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>4</v>
       </c>
@@ -5045,10 +5050,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
     </row>
-    <row r="108" spans="1:5" ht="15.75">
+    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>11</v>
       </c>
@@ -5063,14 +5068,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="B109" s="15"/>
       <c r="C109" s="1"/>
       <c r="D109" s="7"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>16</v>
       </c>
@@ -5085,7 +5090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>17</v>
       </c>
@@ -5100,7 +5105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>18</v>
       </c>
@@ -5115,7 +5120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="30">
+    <row r="113" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>19</v>
       </c>
@@ -5130,7 +5135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75">
+    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>4</v>
       </c>
@@ -5144,10 +5149,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
     </row>
-    <row r="116" spans="1:5" ht="15.75">
+    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>11</v>
       </c>
@@ -5162,14 +5167,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="15"/>
       <c r="C117" s="1"/>
       <c r="D117" s="7"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>16</v>
       </c>
@@ -5184,7 +5189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>17</v>
       </c>
@@ -5199,7 +5204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>18</v>
       </c>
@@ -5214,7 +5219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="30">
+    <row r="121" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>19</v>
       </c>
@@ -5229,7 +5234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75">
+    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>4</v>
       </c>
@@ -5243,10 +5248,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B123" s="13"/>
     </row>
-    <row r="124" spans="1:5" ht="15.75">
+    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>11</v>
       </c>
@@ -5261,14 +5266,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="B125" s="15"/>
       <c r="C125" s="1"/>
       <c r="D125" s="7"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>16</v>
       </c>
@@ -5283,7 +5288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>17</v>
       </c>
@@ -5298,7 +5303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>18</v>
       </c>
@@ -5313,7 +5318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30">
+    <row r="129" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
         <v>19</v>
       </c>
@@ -5328,7 +5333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75">
+    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>4</v>
       </c>
@@ -5342,7 +5347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75">
+    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>11</v>
       </c>
@@ -5356,13 +5361,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="B133" s="15"/>
       <c r="D133" s="7"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>16</v>
       </c>
@@ -5376,7 +5381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>17</v>
       </c>
@@ -5390,7 +5395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>18</v>
       </c>
@@ -5404,7 +5409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="30">
+    <row r="137" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
         <v>19</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75">
+    <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>4</v>
       </c>
@@ -5446,21 +5451,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="77.140625" customWidth="1"/>
+    <col min="1" max="1" width="73.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="77.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -5469,21 +5474,21 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
@@ -5498,14 +5503,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
@@ -5520,7 +5525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -5535,7 +5540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -5550,7 +5555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -5565,7 +5570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -5579,7 +5584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
@@ -5594,14 +5599,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
@@ -5616,7 +5621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -5631,7 +5636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -5646,7 +5651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
@@ -5661,7 +5666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -5675,7 +5680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>20</v>
       </c>
@@ -5690,14 +5695,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="5"/>
       <c r="C21" s="1"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
@@ -5712,7 +5717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -5727,7 +5732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -5742,7 +5747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
@@ -5757,7 +5762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -5771,7 +5776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>20</v>
       </c>
@@ -5786,14 +5791,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>21</v>
       </c>
@@ -5808,7 +5813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
@@ -5823,7 +5828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>23</v>
       </c>
@@ -5838,7 +5843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
@@ -5853,7 +5858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -5867,7 +5872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>20</v>
       </c>
@@ -5882,14 +5887,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>21</v>
       </c>
@@ -5904,7 +5909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>22</v>
       </c>
@@ -5919,7 +5924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>23</v>
       </c>
@@ -5934,7 +5939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>24</v>
       </c>
@@ -5949,7 +5954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -5963,11 +5968,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75">
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="9"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>20</v>
       </c>
@@ -5982,14 +5987,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>21</v>
       </c>
@@ -6004,7 +6009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>22</v>
       </c>
@@ -6019,7 +6024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>23</v>
       </c>
@@ -6034,7 +6039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>24</v>
       </c>
@@ -6049,7 +6054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -6063,8 +6068,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="12" customFormat="1"/>
-    <row r="52" spans="1:5" ht="15.75">
+    <row r="51" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>20</v>
       </c>
@@ -6079,14 +6084,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>21</v>
       </c>
@@ -6101,7 +6106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>22</v>
       </c>
@@ -6116,7 +6121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>23</v>
       </c>
@@ -6131,7 +6136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>24</v>
       </c>
@@ -6146,7 +6151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75">
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -6160,7 +6165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75">
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>20</v>
       </c>
@@ -6175,14 +6180,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="7"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>21</v>
       </c>
@@ -6197,7 +6202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75">
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>22</v>
       </c>
@@ -6212,7 +6217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>23</v>
       </c>
@@ -6227,7 +6232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>24</v>
       </c>
@@ -6242,7 +6247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75">
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -6256,7 +6261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75">
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>20</v>
       </c>
@@ -6271,14 +6276,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="7"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>21</v>
       </c>
@@ -6293,7 +6298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75">
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>22</v>
       </c>
@@ -6308,7 +6313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>23</v>
       </c>
@@ -6323,7 +6328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>24</v>
       </c>
@@ -6338,7 +6343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75">
+    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>4</v>
       </c>
@@ -6352,7 +6357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75">
+    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>20</v>
       </c>
@@ -6367,14 +6372,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="7"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>21</v>
       </c>
@@ -6389,7 +6394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75">
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>22</v>
       </c>
@@ -6404,7 +6409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>23</v>
       </c>
@@ -6419,7 +6424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>24</v>
       </c>
@@ -6434,7 +6439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75">
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
@@ -6448,7 +6453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75">
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>20</v>
       </c>
@@ -6463,14 +6468,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="7"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>21</v>
       </c>
@@ -6485,7 +6490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75">
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>22</v>
       </c>
@@ -6500,7 +6505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>23</v>
       </c>
@@ -6515,7 +6520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>24</v>
       </c>
@@ -6530,7 +6535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75">
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>4</v>
       </c>
@@ -6544,7 +6549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75">
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>20</v>
       </c>
@@ -6559,14 +6564,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="7"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>21</v>
       </c>
@@ -6581,7 +6586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75">
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>22</v>
       </c>
@@ -6596,7 +6601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>23</v>
       </c>
@@ -6611,7 +6616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>24</v>
       </c>
@@ -6626,7 +6631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75">
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>4</v>
       </c>
@@ -6640,7 +6645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75">
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>20</v>
       </c>
@@ -6655,14 +6660,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="7"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>21</v>
       </c>
@@ -6677,7 +6682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75">
+    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>22</v>
       </c>
@@ -6692,7 +6697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>23</v>
       </c>
@@ -6707,7 +6712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>24</v>
       </c>
@@ -6722,7 +6727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75">
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>4</v>
       </c>
@@ -6736,7 +6741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75">
+    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>20</v>
       </c>
@@ -6751,14 +6756,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="B109" s="5"/>
       <c r="C109" s="1"/>
       <c r="D109" s="7"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>21</v>
       </c>
@@ -6773,7 +6778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75">
+    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>22</v>
       </c>
@@ -6788,7 +6793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>23</v>
       </c>
@@ -6803,7 +6808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>24</v>
       </c>
@@ -6818,7 +6823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75">
+    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>4</v>
       </c>
@@ -6832,7 +6837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75">
+    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>20</v>
       </c>
@@ -6847,14 +6852,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="5"/>
       <c r="C117" s="1"/>
       <c r="D117" s="7"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>21</v>
       </c>
@@ -6869,7 +6874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75">
+    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>22</v>
       </c>
@@ -6884,7 +6889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>23</v>
       </c>
@@ -6899,7 +6904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>24</v>
       </c>
@@ -6914,7 +6919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75">
+    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>4</v>
       </c>
@@ -6928,7 +6933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75">
+    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>20</v>
       </c>
@@ -6943,14 +6948,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="B125" s="5"/>
       <c r="C125" s="1"/>
       <c r="D125" s="7"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>21</v>
       </c>
@@ -6965,7 +6970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75">
+    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>22</v>
       </c>
@@ -6980,7 +6985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>23</v>
       </c>
@@ -6995,7 +7000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>24</v>
       </c>
@@ -7010,7 +7015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75">
+    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>4</v>
       </c>
@@ -7038,23 +7043,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="75" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="70.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="70.5" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -7063,21 +7068,21 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
@@ -7092,14 +7097,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -7114,7 +7119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -7129,7 +7134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -7144,7 +7149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -7159,7 +7164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -7173,7 +7178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
@@ -7188,14 +7193,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -7210,7 +7215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -7225,7 +7230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -7240,7 +7245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -7255,7 +7260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -7269,7 +7274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
@@ -7284,14 +7289,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="5"/>
       <c r="C21" s="1"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -7306,7 +7311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -7321,7 +7326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -7336,7 +7341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -7351,7 +7356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -7365,7 +7370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>25</v>
       </c>
@@ -7380,14 +7385,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
@@ -7402,7 +7407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
@@ -7417,7 +7422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
@@ -7432,7 +7437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
@@ -7447,7 +7452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -7461,7 +7466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>25</v>
       </c>
@@ -7476,14 +7481,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>26</v>
       </c>
@@ -7498,7 +7503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
@@ -7513,7 +7518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>28</v>
       </c>
@@ -7528,7 +7533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
@@ -7543,7 +7548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -7557,11 +7562,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75">
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="9"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>25</v>
       </c>
@@ -7576,14 +7581,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>26</v>
       </c>
@@ -7598,7 +7603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>27</v>
       </c>
@@ -7613,7 +7618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>28</v>
       </c>
@@ -7628,7 +7633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>29</v>
       </c>
@@ -7643,7 +7648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -7657,8 +7662,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="12" customFormat="1"/>
-    <row r="52" spans="1:5" ht="15.75">
+    <row r="51" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>25</v>
       </c>
@@ -7673,14 +7678,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -7695,7 +7700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>27</v>
       </c>
@@ -7710,7 +7715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>28</v>
       </c>
@@ -7725,7 +7730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>29</v>
       </c>
@@ -7740,7 +7745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75">
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -7754,7 +7759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75">
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>25</v>
       </c>
@@ -7769,14 +7774,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="7"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>26</v>
       </c>
@@ -7791,7 +7796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75">
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>27</v>
       </c>
@@ -7806,7 +7811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>28</v>
       </c>
@@ -7821,7 +7826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>29</v>
       </c>
@@ -7836,7 +7841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75">
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -7850,7 +7855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75">
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>25</v>
       </c>
@@ -7865,14 +7870,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="7"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>26</v>
       </c>
@@ -7887,7 +7892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75">
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>27</v>
       </c>
@@ -7902,7 +7907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>28</v>
       </c>
@@ -7917,7 +7922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>29</v>
       </c>
@@ -7932,7 +7937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75">
+    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>4</v>
       </c>
@@ -7946,7 +7951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75">
+    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>25</v>
       </c>
@@ -7961,14 +7966,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="7"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>26</v>
       </c>
@@ -7983,7 +7988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75">
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>27</v>
       </c>
@@ -7998,7 +8003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>28</v>
       </c>
@@ -8013,7 +8018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>29</v>
       </c>
@@ -8028,7 +8033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75">
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
@@ -8042,7 +8047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75">
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>25</v>
       </c>
@@ -8057,14 +8062,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="7"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>26</v>
       </c>
@@ -8079,7 +8084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75">
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>27</v>
       </c>
@@ -8094,7 +8099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>28</v>
       </c>
@@ -8109,7 +8114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>29</v>
       </c>
@@ -8124,7 +8129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75">
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>4</v>
       </c>
@@ -8138,7 +8143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75">
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>25</v>
       </c>
@@ -8153,14 +8158,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="7"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>26</v>
       </c>
@@ -8175,7 +8180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75">
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>27</v>
       </c>
@@ -8190,7 +8195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>28</v>
       </c>
@@ -8205,7 +8210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>29</v>
       </c>
@@ -8220,7 +8225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75">
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>4</v>
       </c>
@@ -8234,7 +8239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75">
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>25</v>
       </c>
@@ -8249,14 +8254,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="7"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>26</v>
       </c>
@@ -8271,7 +8276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75">
+    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>27</v>
       </c>
@@ -8286,7 +8291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>28</v>
       </c>
@@ -8301,7 +8306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -8316,7 +8321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75">
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>4</v>
       </c>
@@ -8344,22 +8349,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="84.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="18"/>
-    <col min="4" max="4" width="76.85546875" customWidth="1"/>
+    <col min="1" max="1" width="84.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="18"/>
+    <col min="4" max="4" width="76.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -8368,21 +8373,21 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1">
+    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
@@ -8398,7 +8403,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="5"/>
       <c r="C5" s="27"/>
@@ -8406,7 +8411,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15.95" customHeight="1">
+    <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
@@ -8422,7 +8427,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -8438,7 +8443,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
@@ -8454,7 +8459,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
@@ -8470,7 +8475,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -8486,10 +8491,10 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -8505,7 +8510,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="5"/>
       <c r="C13" s="27"/>
@@ -8513,7 +8518,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -8529,7 +8534,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -8545,7 +8550,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -8561,7 +8566,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -8577,7 +8582,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -8593,10 +8598,10 @@
       </c>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C19" s="28"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>30</v>
       </c>
@@ -8612,7 +8617,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="5"/>
       <c r="C21" s="27"/>
@@ -8620,7 +8625,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
@@ -8636,7 +8641,7 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
@@ -8652,7 +8657,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>33</v>
       </c>
@@ -8668,7 +8673,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
@@ -8684,7 +8689,7 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -8700,10 +8705,10 @@
       </c>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="28"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>30</v>
       </c>
@@ -8719,7 +8724,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="C29" s="27"/>
@@ -8727,7 +8732,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
@@ -8743,7 +8748,7 @@
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -8759,7 +8764,7 @@
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>33</v>
       </c>
@@ -8775,7 +8780,7 @@
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
@@ -8791,7 +8796,7 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -8807,10 +8812,10 @@
       </c>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C35" s="28"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>30</v>
       </c>
@@ -8826,7 +8831,7 @@
       </c>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="5"/>
       <c r="C37" s="27"/>
@@ -8834,7 +8839,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>31</v>
       </c>
@@ -8850,7 +8855,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
@@ -8866,7 +8871,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>33</v>
       </c>
@@ -8882,7 +8887,7 @@
       </c>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>34</v>
       </c>
@@ -8898,7 +8903,7 @@
       </c>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -8914,13 +8919,13 @@
       </c>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="9"/>
       <c r="C43" s="19"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>30</v>
       </c>
@@ -8936,7 +8941,7 @@
       </c>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="27"/>
@@ -8944,7 +8949,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>31</v>
       </c>
@@ -8960,7 +8965,7 @@
       </c>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75">
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>32</v>
       </c>
@@ -8976,7 +8981,7 @@
       </c>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>33</v>
       </c>
@@ -8992,7 +8997,7 @@
       </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>34</v>
       </c>
@@ -9008,7 +9013,7 @@
       </c>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -9024,7 +9029,7 @@
       </c>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6" ht="15.75">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="9"/>
       <c r="C51" s="19"/>
@@ -9032,7 +9037,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6" ht="15.75">
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>30</v>
       </c>
@@ -9048,7 +9053,7 @@
       </c>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="5"/>
       <c r="C53" s="27"/>
@@ -9056,7 +9061,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>31</v>
       </c>
@@ -9072,7 +9077,7 @@
       </c>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" ht="15.75">
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>32</v>
       </c>
@@ -9088,7 +9093,7 @@
       </c>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>33</v>
       </c>
@@ -9104,7 +9109,7 @@
       </c>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>34</v>
       </c>
@@ -9120,7 +9125,7 @@
       </c>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" ht="15.75">
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -9136,12 +9141,12 @@
       </c>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:6" ht="15.75">
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C59" s="28"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="1:6" ht="15.75">
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>30</v>
       </c>
@@ -9157,7 +9162,7 @@
       </c>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="5"/>
       <c r="C61" s="27"/>
@@ -9165,7 +9170,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>31</v>
       </c>
@@ -9181,7 +9186,7 @@
       </c>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75">
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>32</v>
       </c>
@@ -9197,7 +9202,7 @@
       </c>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>33</v>
       </c>
@@ -9213,7 +9218,7 @@
       </c>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>34</v>
       </c>
@@ -9229,7 +9234,7 @@
       </c>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75">
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -9245,7 +9250,7 @@
       </c>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:6" ht="15.75">
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="9"/>
       <c r="C67" s="19"/>
@@ -9253,11 +9258,11 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:6" s="12" customFormat="1" ht="15.75">
+    <row r="68" spans="1:6" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C68" s="19"/>
       <c r="F68" s="21"/>
     </row>
-    <row r="69" spans="1:6" ht="15.75">
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>30</v>
       </c>
@@ -9273,7 +9278,7 @@
       </c>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="5"/>
       <c r="C70" s="27"/>
@@ -9281,7 +9286,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>31</v>
       </c>
@@ -9297,7 +9302,7 @@
       </c>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:6" ht="15.75">
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>32</v>
       </c>
@@ -9313,7 +9318,7 @@
       </c>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>33</v>
       </c>
@@ -9329,7 +9334,7 @@
       </c>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>34</v>
       </c>
@@ -9345,7 +9350,7 @@
       </c>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" ht="15.75">
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>4</v>
       </c>
@@ -9361,10 +9366,10 @@
       </c>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C76" s="28"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75">
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>30</v>
       </c>
@@ -9380,7 +9385,7 @@
       </c>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="5"/>
       <c r="C78" s="27"/>
@@ -9388,7 +9393,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>31</v>
       </c>
@@ -9404,7 +9409,7 @@
       </c>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:6" ht="15.75">
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>32</v>
       </c>
@@ -9420,7 +9425,7 @@
       </c>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>33</v>
       </c>
@@ -9436,7 +9441,7 @@
       </c>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>34</v>
       </c>
@@ -9452,7 +9457,7 @@
       </c>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75">
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>4</v>
       </c>
@@ -9468,10 +9473,10 @@
       </c>
       <c r="F83" s="9"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C84" s="28"/>
     </row>
-    <row r="85" spans="1:6" ht="15.75">
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>30</v>
       </c>
@@ -9487,7 +9492,7 @@
       </c>
       <c r="F85" s="8"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="5"/>
       <c r="C86" s="27"/>
@@ -9495,7 +9500,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>31</v>
       </c>
@@ -9511,7 +9516,7 @@
       </c>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6" ht="15.75">
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>32</v>
       </c>
@@ -9527,7 +9532,7 @@
       </c>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>33</v>
       </c>
@@ -9543,7 +9548,7 @@
       </c>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>34</v>
       </c>
@@ -9559,7 +9564,7 @@
       </c>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" ht="15.75">
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>4</v>
       </c>
@@ -9575,10 +9580,10 @@
       </c>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C92" s="28"/>
     </row>
-    <row r="93" spans="1:6" ht="15.75">
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>30</v>
       </c>
@@ -9594,7 +9599,7 @@
       </c>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="5"/>
       <c r="C94" s="27"/>
@@ -9602,7 +9607,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>31</v>
       </c>
@@ -9618,7 +9623,7 @@
       </c>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="1:6" ht="15.75">
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>32</v>
       </c>
@@ -9634,7 +9639,7 @@
       </c>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>33</v>
       </c>
@@ -9650,7 +9655,7 @@
       </c>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>34</v>
       </c>
@@ -9666,7 +9671,7 @@
       </c>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="1:6" ht="15.75">
+    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>4</v>
       </c>
@@ -9682,10 +9687,10 @@
       </c>
       <c r="F99" s="9"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C100" s="28"/>
     </row>
-    <row r="101" spans="1:6" ht="15.75">
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>30</v>
       </c>
@@ -9701,7 +9706,7 @@
       </c>
       <c r="F101" s="8"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
       <c r="B102" s="5"/>
       <c r="C102" s="27"/>
@@ -9709,7 +9714,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>31</v>
       </c>
@@ -9725,7 +9730,7 @@
       </c>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="1:6" ht="15.75">
+    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>32</v>
       </c>
@@ -9741,7 +9746,7 @@
       </c>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>33</v>
       </c>
@@ -9757,7 +9762,7 @@
       </c>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>34</v>
       </c>
@@ -9773,7 +9778,7 @@
       </c>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="1:6" ht="15.75">
+    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>4</v>
       </c>
@@ -9789,10 +9794,10 @@
       </c>
       <c r="F107" s="9"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C108" s="28"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75">
+    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>30</v>
       </c>
@@ -9808,7 +9813,7 @@
       </c>
       <c r="F109" s="8"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="B110" s="5"/>
       <c r="C110" s="27"/>
@@ -9816,7 +9821,7 @@
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>31</v>
       </c>
@@ -9832,7 +9837,7 @@
       </c>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:6" ht="15.75">
+    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>32</v>
       </c>
@@ -9848,7 +9853,7 @@
       </c>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>33</v>
       </c>
@@ -9864,7 +9869,7 @@
       </c>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>34</v>
       </c>
@@ -9880,7 +9885,7 @@
       </c>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="1:6" ht="15.75">
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>4</v>
       </c>
@@ -9896,10 +9901,10 @@
       </c>
       <c r="F115" s="9"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C116" s="28"/>
     </row>
-    <row r="117" spans="1:6" ht="15.75">
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>30</v>
       </c>
@@ -9915,7 +9920,7 @@
       </c>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="B118" s="5"/>
       <c r="C118" s="27"/>
@@ -9923,7 +9928,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>31</v>
       </c>
@@ -9939,7 +9944,7 @@
       </c>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="1:6" ht="15.75">
+    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>32</v>
       </c>
@@ -9955,7 +9960,7 @@
       </c>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>33</v>
       </c>
@@ -9971,7 +9976,7 @@
       </c>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>34</v>
       </c>
@@ -9987,7 +9992,7 @@
       </c>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" spans="1:6" ht="15.75">
+    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
@@ -10003,10 +10008,10 @@
       </c>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C124" s="28"/>
     </row>
-    <row r="125" spans="1:6" ht="15.75">
+    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
         <v>30</v>
       </c>
@@ -10022,7 +10027,7 @@
       </c>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="B126" s="5"/>
       <c r="C126" s="27"/>
@@ -10030,7 +10035,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>31</v>
       </c>
@@ -10046,7 +10051,7 @@
       </c>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="1:6" ht="15.75">
+    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>32</v>
       </c>
@@ -10062,7 +10067,7 @@
       </c>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>33</v>
       </c>
@@ -10078,7 +10083,7 @@
       </c>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>34</v>
       </c>
@@ -10094,7 +10099,7 @@
       </c>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6" ht="15.75">
+    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>4</v>
       </c>
@@ -10110,10 +10115,10 @@
       </c>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C132" s="28"/>
     </row>
-    <row r="133" spans="1:6" ht="15.75">
+    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
         <v>30</v>
       </c>
@@ -10129,7 +10134,7 @@
       </c>
       <c r="F133" s="8"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="B134" s="5"/>
       <c r="C134" s="27"/>
@@ -10137,7 +10142,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>31</v>
       </c>
@@ -10153,7 +10158,7 @@
       </c>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="1:6" ht="15.75">
+    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>32</v>
       </c>
@@ -10169,7 +10174,7 @@
       </c>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>33</v>
       </c>
@@ -10185,7 +10190,7 @@
       </c>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>34</v>
       </c>
@@ -10201,7 +10206,7 @@
       </c>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" spans="1:6" ht="15.75">
+    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>4</v>
       </c>
@@ -10231,24 +10236,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:XFD167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="72.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="22" customWidth="1"/>
     <col min="4" max="4" width="76" style="22" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="22"/>
+    <col min="5" max="5" width="14.5" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -10257,21 +10262,21 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>36</v>
       </c>
@@ -10286,14 +10291,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="5"/>
       <c r="C5" s="23"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -10308,7 +10313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>38</v>
       </c>
@@ -10323,7 +10328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
@@ -10338,7 +10343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
@@ -10353,7 +10358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -10368,7 +10373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
@@ -10383,7 +10388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -10397,7 +10402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>36</v>
       </c>
@@ -10412,14 +10417,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="5"/>
       <c r="C15" s="23"/>
       <c r="D15" s="7"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
@@ -10430,9 +10435,11 @@
       <c r="D16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75">
+      <c r="E16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>38</v>
       </c>
@@ -10443,9 +10450,11 @@
       <c r="D17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
@@ -10456,9 +10465,11 @@
       <c r="D18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -10469,9 +10480,11 @@
       <c r="D19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
@@ -10482,9 +10495,11 @@
       <c r="D20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
@@ -10495,9 +10510,11 @@
       <c r="D21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75">
+      <c r="E21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -10507,9 +10524,11 @@
       <c r="D22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75">
+      <c r="E22" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>36</v>
       </c>
@@ -10524,14 +10543,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="23"/>
       <c r="D25" s="7"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>37</v>
       </c>
@@ -10542,9 +10561,11 @@
       <c r="D26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75">
+      <c r="E26" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>38</v>
       </c>
@@ -10555,9 +10576,11 @@
       <c r="D27" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
@@ -10568,9 +10591,11 @@
       <c r="D28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>40</v>
       </c>
@@ -10581,9 +10606,11 @@
       <c r="D29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>41</v>
       </c>
@@ -10594,9 +10621,11 @@
       <c r="D30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -10607,9 +10636,11 @@
       <c r="D31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75">
+      <c r="E31" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -10619,9 +10650,11 @@
       <c r="D32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75">
+      <c r="E32" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
@@ -10636,14 +10669,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="5"/>
       <c r="C35" s="23"/>
       <c r="D35" s="7"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -10654,9 +10687,11 @@
       <c r="D36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75">
+      <c r="E36" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>38</v>
       </c>
@@ -10667,9 +10702,11 @@
       <c r="D37" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>39</v>
       </c>
@@ -10680,9 +10717,11 @@
       <c r="D38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
@@ -10693,9 +10732,11 @@
       <c r="D39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>41</v>
       </c>
@@ -10706,9 +10747,11 @@
       <c r="D40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="E40" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -10719,9 +10762,11 @@
       <c r="D41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75">
+      <c r="E41" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -10731,9 +10776,11 @@
       <c r="D42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75">
+      <c r="E42" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>36</v>
       </c>
@@ -10748,14 +10795,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="23"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>37</v>
       </c>
@@ -10766,9 +10813,11 @@
       <c r="D46" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75">
+      <c r="E46" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
         <v>38</v>
       </c>
@@ -10779,9 +10828,11 @@
       <c r="D47" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>39</v>
       </c>
@@ -10792,9 +10843,11 @@
       <c r="D48" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>40</v>
       </c>
@@ -10805,9 +10858,11 @@
       <c r="D49" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>41</v>
       </c>
@@ -10818,9 +10873,11 @@
       <c r="D50" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>42</v>
       </c>
@@ -10831,9 +10888,11 @@
       <c r="D51" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75">
+      <c r="E51" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>4</v>
       </c>
@@ -10843,9 +10902,11 @@
       <c r="D52" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75">
+      <c r="E52" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>36</v>
       </c>
@@ -10860,90 +10921,118 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="5"/>
       <c r="C55" s="23"/>
       <c r="D55" s="7"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C56" s="24"/>
       <c r="D56" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75">
+      <c r="E56" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C57" s="24"/>
       <c r="D57" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="E57" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="5"/>
+      <c r="B58" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C58" s="24"/>
       <c r="D58" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="E58" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C59" s="24"/>
       <c r="D59" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="E59" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="5"/>
+      <c r="B60" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C60" s="24"/>
       <c r="D60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="E60" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="5"/>
+      <c r="B61" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C61" s="24"/>
       <c r="D61" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75">
+      <c r="E61" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D62" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="9"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75">
+      <c r="E62" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>36</v>
       </c>
@@ -10958,90 +11047,118 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="5"/>
       <c r="C65" s="23"/>
       <c r="D65" s="7"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="5"/>
+      <c r="B66" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C66" s="24"/>
       <c r="D66" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75">
+      <c r="E66" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="5"/>
+      <c r="B67" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C67" s="24"/>
       <c r="D67" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="E67" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="5"/>
+      <c r="B68" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C68" s="24"/>
       <c r="D68" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="E68" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="5"/>
+      <c r="B69" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C69" s="24"/>
       <c r="D69" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="E69" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="5"/>
+      <c r="B70" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C70" s="24"/>
       <c r="D70" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="E70" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="5"/>
+      <c r="B71" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C71" s="24"/>
       <c r="D71" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.75">
+      <c r="E71" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="9"/>
+      <c r="B72" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D72" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75">
+      <c r="E72" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>36</v>
       </c>
@@ -11056,90 +11173,118 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="5"/>
       <c r="C75" s="23"/>
       <c r="D75" s="7"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B76" s="5"/>
+      <c r="B76" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C76" s="24"/>
       <c r="D76" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75">
+      <c r="E76" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="5"/>
+      <c r="B77" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C77" s="24"/>
       <c r="D77" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="E77" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="5"/>
+      <c r="B78" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C78" s="24"/>
       <c r="D78" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="E78" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B79" s="5"/>
+      <c r="B79" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C79" s="24"/>
       <c r="D79" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E79" s="5"/>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="E79" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="5"/>
+      <c r="B80" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C80" s="24"/>
       <c r="D80" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="E80" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B81" s="5"/>
+      <c r="B81" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C81" s="24"/>
       <c r="D81" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="5"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.75">
+      <c r="E81" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D82" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="9"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.75">
+      <c r="E82" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>36</v>
       </c>
@@ -11154,90 +11299,118 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="5"/>
       <c r="C85" s="23"/>
       <c r="D85" s="7"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B86" s="5"/>
+      <c r="B86" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C86" s="24"/>
       <c r="D86" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87" spans="1:5" ht="15.75">
+      <c r="E86" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="5"/>
+      <c r="B87" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C87" s="24"/>
       <c r="D87" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="E87" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B88" s="5"/>
+      <c r="B88" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C88" s="24"/>
       <c r="D88" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E88" s="5"/>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="E88" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B89" s="5"/>
+      <c r="B89" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C89" s="24"/>
       <c r="D89" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="E89" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B90" s="5"/>
+      <c r="B90" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C90" s="24"/>
       <c r="D90" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="E90" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="5"/>
+      <c r="B91" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C91" s="24"/>
       <c r="D91" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92" spans="1:5" ht="15.75">
+      <c r="E91" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="9"/>
+      <c r="B92" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D92" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="9"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.75">
+      <c r="E92" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
         <v>36</v>
       </c>
@@ -11252,90 +11425,118 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="5"/>
       <c r="C95" s="23"/>
       <c r="D95" s="7"/>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B96" s="5"/>
+      <c r="B96" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C96" s="24"/>
       <c r="D96" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.75">
+      <c r="E96" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B97" s="5"/>
+      <c r="B97" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C97" s="24"/>
       <c r="D97" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="E97" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="5"/>
+      <c r="B98" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C98" s="24"/>
       <c r="D98" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="E98" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B99" s="5"/>
+      <c r="B99" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C99" s="24"/>
       <c r="D99" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E99" s="5"/>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="E99" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B100" s="5"/>
+      <c r="B100" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C100" s="24"/>
       <c r="D100" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E100" s="5"/>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="E100" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B101" s="5"/>
+      <c r="B101" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C101" s="24"/>
       <c r="D101" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E101" s="5"/>
-    </row>
-    <row r="102" spans="1:5" ht="15.75">
+      <c r="E101" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="9"/>
+      <c r="B102" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D102" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="9"/>
-    </row>
-    <row r="104" spans="1:5" ht="15.75">
+      <c r="E102" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
         <v>36</v>
       </c>
@@ -11350,585 +11551,123 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="5"/>
       <c r="C105" s="23"/>
       <c r="D105" s="7"/>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B106" s="5"/>
+      <c r="B106" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C106" s="24"/>
       <c r="D106" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E106" s="5"/>
-    </row>
-    <row r="107" spans="1:5" ht="15.75">
+      <c r="E106" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B107" s="5"/>
+      <c r="B107" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C107" s="24"/>
       <c r="D107" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E107" s="5"/>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="E107" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B108" s="5"/>
+      <c r="B108" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C108" s="24"/>
       <c r="D108" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E108" s="5"/>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="E108" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B109" s="5"/>
+      <c r="B109" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C109" s="24"/>
       <c r="D109" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E109" s="5"/>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="E109" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="5"/>
+      <c r="B110" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C110" s="24"/>
       <c r="D110" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E110" s="5"/>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="E110" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B111" s="5"/>
+      <c r="B111" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C111" s="24"/>
       <c r="D111" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E111" s="5"/>
-    </row>
-    <row r="112" spans="1:5" ht="15.75">
+      <c r="E111" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="9"/>
+      <c r="B112" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D112" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E112" s="9"/>
-    </row>
-    <row r="114" spans="1:5" ht="15.75">
-      <c r="A114" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114" s="23"/>
-      <c r="D114" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="7"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="5"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E116" s="5"/>
-    </row>
-    <row r="117" spans="1:5" ht="15.75">
-      <c r="A117" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E117" s="5"/>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E118" s="5"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E119" s="5"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E120" s="5"/>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E121" s="5"/>
-    </row>
-    <row r="122" spans="1:5" ht="15.75">
-      <c r="A122" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" s="9"/>
-      <c r="D122" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" s="9"/>
-    </row>
-    <row r="124" spans="1:5" ht="15.75">
-      <c r="A124" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C124" s="23"/>
-      <c r="D124" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="7"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="5"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" s="5"/>
-    </row>
-    <row r="127" spans="1:5" ht="15.75">
-      <c r="A127" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B127" s="5"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E127" s="5"/>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E128" s="5"/>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E129" s="5"/>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E130" s="5"/>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E131" s="5"/>
-    </row>
-    <row r="132" spans="1:5" ht="15.75">
-      <c r="A132" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="9"/>
-      <c r="D132" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E132" s="9"/>
-    </row>
-    <row r="134" spans="1:5" ht="15.75">
-      <c r="A134" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134" s="23"/>
-      <c r="D134" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="7"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="5"/>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B136" s="5"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E136" s="5"/>
-    </row>
-    <row r="137" spans="1:5" ht="15.75">
-      <c r="A137" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B137" s="5"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E137" s="5"/>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B138" s="5"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E138" s="5"/>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E139" s="5"/>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E140" s="5"/>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E141" s="5"/>
-    </row>
-    <row r="142" spans="1:5" ht="15.75">
-      <c r="A142" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B142" s="9"/>
-      <c r="D142" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E142" s="9"/>
-    </row>
-    <row r="144" spans="1:5" ht="15.75">
-      <c r="A144" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C144" s="23"/>
-      <c r="D144" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="7"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="23"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="5"/>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B146" s="5"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E146" s="5"/>
-    </row>
-    <row r="147" spans="1:5" ht="15.75">
-      <c r="A147" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B147" s="5"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E147" s="5"/>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B148" s="5"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E148" s="5"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B149" s="5"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E149" s="5"/>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B150" s="5"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E150" s="5"/>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B151" s="5"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E151" s="5"/>
-    </row>
-    <row r="152" spans="1:5" ht="15.75">
-      <c r="A152" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152" s="9"/>
-      <c r="D152" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E152" s="9"/>
-    </row>
-    <row r="154" spans="1:5" ht="15.75">
-      <c r="A154" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C154" s="23"/>
-      <c r="D154" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="7"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="23"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="5"/>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B156" s="5"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E156" s="5"/>
-    </row>
-    <row r="157" spans="1:5" ht="15.75">
-      <c r="A157" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B157" s="5"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E157" s="5"/>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B158" s="5"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E158" s="5"/>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E159" s="5"/>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B160" s="5"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E160" s="5"/>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E161" s="5"/>
-    </row>
-    <row r="162" spans="1:5" ht="15.75">
-      <c r="A162" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162" s="9"/>
-      <c r="D162" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E162" s="9"/>
+      <c r="E112" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B12 B106:B112 E116:E123 B16:B22 B116:B123 E16:E22 B46:B52 E46:E52 B66:B72 B76:B83 E66:E72 E6:E12 B56:B62 E36:E43 B26:B32 E26:E32 E106:E112 E76:E83 B36:B43 E56:E62 B86:B92 B96:B102 E96:E102 E86:E92 B126:B132 B136:B142 E136:E142 E126:E132 E156:E162 B146:B152 E146:E152 B156:B162">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B12 B106:B112 B16:B22 B46:B52 E46:E52 B66:B72 E16:E22 E66:E72 E6:E12 B56:B62 B86:B92 B26:B32 E26:E32 E106:E112 E76:E83 B36:B43 E56:E62 B76:B83 B96:B102 E96:E102 E86:E92 E36:E43">
       <formula1>op</formula1>
     </dataValidation>
   </dataValidations>
@@ -11937,26 +11676,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G7:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="7:7">
+    <row r="7" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="7:7">
+    <row r="8" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="7:7">
+    <row r="9" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G9" s="3" t="s">
         <v>7</v>
       </c>

--- a/REGRAS.xlsx
+++ b/REGRAS.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptakaki/Documents/!!patricia/!ICV/2019/artigo final/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="500" windowWidth="26840" windowHeight="19540" activeTab="6"/>
+    <workbookView xWindow="2415" yWindow="495" windowWidth="20730" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Dimensão 1 VA" sheetId="1" r:id="rId1"/>
@@ -173,8 +168,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,20 +412,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="16">
-    <cellStyle name="Hiperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Saída" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -487,7 +482,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -522,7 +517,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -730,22 +725,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E4" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="85.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="85.5" customWidth="1"/>
+    <col min="1" max="1" width="85.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="85.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -754,21 +749,21 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -789,7 +784,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
@@ -802,7 +797,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16.5" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -823,7 +818,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="16.5" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
@@ -844,7 +839,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -865,7 +860,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16.5" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -880,7 +875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="16.5" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -894,7 +889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
@@ -908,13 +903,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="7"/>
       <c r="B13" s="5"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -928,7 +923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -942,7 +937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
@@ -956,7 +951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
@@ -970,7 +965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -984,7 +979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="10" t="s">
         <v>3</v>
       </c>
@@ -998,13 +993,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="7"/>
       <c r="B21" s="5"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
         <v>1</v>
       </c>
@@ -1032,7 +1027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +1055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="10" t="s">
         <v>3</v>
       </c>
@@ -1088,13 +1083,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
         <v>8</v>
       </c>
@@ -1136,7 +1131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="7" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15.75">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1179,14 +1174,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="7"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -1216,7 +1211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
         <v>8</v>
       </c>
@@ -1231,7 +1226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="7" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +1241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.75">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -1260,13 +1255,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15.75">
       <c r="A43" s="6"/>
       <c r="B43" s="9"/>
       <c r="D43" s="6"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="15.75">
       <c r="A44" s="10" t="s">
         <v>3</v>
       </c>
@@ -1281,14 +1276,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="7" t="s">
         <v>1</v>
       </c>
@@ -1318,7 +1313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="7" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="7" t="s">
         <v>9</v>
       </c>
@@ -1348,7 +1343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="15.75">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -1362,14 +1357,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="15.75">
       <c r="A52" s="10" t="s">
         <v>3</v>
       </c>
@@ -1383,13 +1378,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="7"/>
       <c r="B53" s="5"/>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="7" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
@@ -1417,7 +1412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="7" t="s">
         <v>8</v>
       </c>
@@ -1431,7 +1426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="7" t="s">
         <v>9</v>
       </c>
@@ -1445,7 +1440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="15.75">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -1459,7 +1454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="15.75">
       <c r="A60" s="10" t="s">
         <v>3</v>
       </c>
@@ -1473,13 +1468,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="7"/>
       <c r="B61" s="5"/>
       <c r="D61" s="7"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="7" t="s">
         <v>1</v>
       </c>
@@ -1507,7 +1502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="7" t="s">
         <v>8</v>
       </c>
@@ -1521,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="7" t="s">
         <v>9</v>
       </c>
@@ -1535,7 +1530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="15.75">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -1549,7 +1544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="15.75">
       <c r="A68" s="10" t="s">
         <v>3</v>
       </c>
@@ -1563,13 +1558,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="7"/>
       <c r="B69" s="5"/>
       <c r="D69" s="7"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="7" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +1578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="7" t="s">
         <v>1</v>
       </c>
@@ -1597,7 +1592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="7" t="s">
         <v>8</v>
       </c>
@@ -1611,7 +1606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="7" t="s">
         <v>9</v>
       </c>
@@ -1625,7 +1620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="6" t="s">
         <v>4</v>
       </c>
@@ -1639,7 +1634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="15.75">
       <c r="A76" s="10" t="s">
         <v>3</v>
       </c>
@@ -1654,14 +1649,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="7"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="7"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="7" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +1671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="7" t="s">
         <v>1</v>
       </c>
@@ -1691,7 +1686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="7" t="s">
         <v>8</v>
       </c>
@@ -1706,7 +1701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="7" t="s">
         <v>9</v>
       </c>
@@ -1721,7 +1716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="15.75">
       <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
@@ -1735,7 +1730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="15.75">
       <c r="A84" s="10" t="s">
         <v>3</v>
       </c>
@@ -1749,13 +1744,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="7"/>
       <c r="B85" s="5"/>
       <c r="D85" s="7"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="7" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="7" t="s">
         <v>1</v>
       </c>
@@ -1783,7 +1778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="7" t="s">
         <v>8</v>
       </c>
@@ -1797,7 +1792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="7" t="s">
         <v>9</v>
       </c>
@@ -1811,7 +1806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="15.75">
       <c r="A90" s="6" t="s">
         <v>4</v>
       </c>
@@ -1825,7 +1820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="15.75">
       <c r="A92" s="10" t="s">
         <v>3</v>
       </c>
@@ -1839,13 +1834,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="7"/>
       <c r="B93" s="5"/>
       <c r="D93" s="7"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="7" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="7" t="s">
         <v>1</v>
       </c>
@@ -1873,7 +1868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="7" t="s">
         <v>8</v>
       </c>
@@ -1887,7 +1882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="7" t="s">
         <v>9</v>
       </c>
@@ -1901,7 +1896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="15.75">
       <c r="A98" s="6" t="s">
         <v>4</v>
       </c>
@@ -1915,7 +1910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="15.75">
       <c r="A100" s="10" t="s">
         <v>3</v>
       </c>
@@ -1929,13 +1924,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="7"/>
       <c r="B101" s="5"/>
       <c r="D101" s="7"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="7" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" s="7" t="s">
         <v>1</v>
       </c>
@@ -1963,7 +1958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="7" t="s">
         <v>8</v>
       </c>
@@ -1977,7 +1972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="7" t="s">
         <v>9</v>
       </c>
@@ -1991,7 +1986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="15.75">
       <c r="A106" s="6" t="s">
         <v>4</v>
       </c>
@@ -2019,22 +2014,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E138" sqref="E4:E138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="76.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="76.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="72.33203125" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -2042,19 +2037,19 @@
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -2069,14 +2064,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="7"/>
       <c r="B5" s="15"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -2091,7 +2086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -2106,7 +2101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2121,7 +2116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
@@ -2136,7 +2131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -2150,10 +2145,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -2168,14 +2163,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="7"/>
       <c r="B13" s="15"/>
       <c r="C13" s="1"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -2190,7 +2185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -2205,7 +2200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -2220,7 +2215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -2235,7 +2230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2249,10 +2244,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="10" t="s">
         <v>10</v>
       </c>
@@ -2267,14 +2262,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="7"/>
       <c r="B21" s="15"/>
       <c r="C21" s="1"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
@@ -2289,7 +2284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
@@ -2304,7 +2299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
@@ -2319,7 +2314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
@@ -2334,7 +2329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -2348,10 +2343,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="10" t="s">
         <v>10</v>
       </c>
@@ -2366,14 +2361,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="15"/>
       <c r="C29" s="1"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
         <v>12</v>
       </c>
@@ -2388,7 +2383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
         <v>13</v>
       </c>
@@ -2403,7 +2398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
         <v>14</v>
       </c>
@@ -2418,7 +2413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="30">
       <c r="A33" s="11" t="s">
         <v>15</v>
       </c>
@@ -2433,7 +2428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -2447,10 +2442,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15.75">
       <c r="A36" s="10" t="s">
         <v>10</v>
       </c>
@@ -2465,14 +2460,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="7"/>
       <c r="B37" s="15"/>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
         <v>12</v>
       </c>
@@ -2487,7 +2482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -2502,7 +2497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
         <v>14</v>
       </c>
@@ -2517,7 +2512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="30">
       <c r="A41" s="11" t="s">
         <v>15</v>
       </c>
@@ -2532,7 +2527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.75">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -2546,11 +2541,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15.75">
       <c r="B43" s="16"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="15.75">
       <c r="A44" s="10" t="s">
         <v>10</v>
       </c>
@@ -2565,14 +2560,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="7"/>
       <c r="B45" s="15"/>
       <c r="C45" s="1"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
         <v>12</v>
       </c>
@@ -2587,7 +2582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="7" t="s">
         <v>13</v>
       </c>
@@ -2602,7 +2597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="7" t="s">
         <v>14</v>
       </c>
@@ -2617,7 +2612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="30">
       <c r="A49" s="11" t="s">
         <v>15</v>
       </c>
@@ -2632,7 +2627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="15.75">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -2646,11 +2641,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="15.75">
       <c r="B51" s="19"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="15.75">
       <c r="A52" s="10" t="s">
         <v>10</v>
       </c>
@@ -2665,14 +2660,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="7"/>
       <c r="B53" s="15"/>
       <c r="C53" s="1"/>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="7" t="s">
         <v>12</v>
       </c>
@@ -2687,7 +2682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="7" t="s">
         <v>13</v>
       </c>
@@ -2702,7 +2697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="7" t="s">
         <v>14</v>
       </c>
@@ -2717,7 +2712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="30">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
@@ -2732,7 +2727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="15.75">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -2746,11 +2741,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="15.75">
       <c r="B59" s="13"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="15.75">
       <c r="A60" s="10" t="s">
         <v>10</v>
       </c>
@@ -2765,14 +2760,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="7"/>
       <c r="B61" s="15"/>
       <c r="C61" s="1"/>
       <c r="D61" s="7"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="7" t="s">
         <v>12</v>
       </c>
@@ -2787,7 +2782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="7" t="s">
         <v>13</v>
       </c>
@@ -2802,7 +2797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="7" t="s">
         <v>14</v>
       </c>
@@ -2817,7 +2812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="30">
       <c r="A65" s="11" t="s">
         <v>15</v>
       </c>
@@ -2832,7 +2827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="15.75">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -2846,11 +2841,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" s="12" customFormat="1" ht="15.75">
       <c r="B67" s="20"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="15.75">
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
@@ -2865,14 +2860,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="7"/>
       <c r="B69" s="15"/>
       <c r="C69" s="1"/>
       <c r="D69" s="7"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="7" t="s">
         <v>12</v>
       </c>
@@ -2887,7 +2882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="7" t="s">
         <v>13</v>
       </c>
@@ -2902,7 +2897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="7" t="s">
         <v>14</v>
       </c>
@@ -2917,7 +2912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="30">
       <c r="A73" s="11" t="s">
         <v>15</v>
       </c>
@@ -2932,7 +2927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="6" t="s">
         <v>4</v>
       </c>
@@ -2946,10 +2941,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="B75" s="13"/>
     </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="15.75">
       <c r="A76" s="10" t="s">
         <v>10</v>
       </c>
@@ -2964,14 +2959,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="7"/>
       <c r="B77" s="15"/>
       <c r="C77" s="1"/>
       <c r="D77" s="7"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="7" t="s">
         <v>12</v>
       </c>
@@ -2986,7 +2981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="7" t="s">
         <v>13</v>
       </c>
@@ -3001,7 +2996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="7" t="s">
         <v>14</v>
       </c>
@@ -3016,7 +3011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="30">
       <c r="A81" s="11" t="s">
         <v>15</v>
       </c>
@@ -3031,7 +3026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="15.75">
       <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
@@ -3045,10 +3040,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="B83" s="13"/>
     </row>
-    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="15.75">
       <c r="A84" s="10" t="s">
         <v>10</v>
       </c>
@@ -3063,14 +3058,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="7"/>
       <c r="B85" s="15"/>
       <c r="C85" s="1"/>
       <c r="D85" s="7"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="7" t="s">
         <v>12</v>
       </c>
@@ -3085,7 +3080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="7" t="s">
         <v>13</v>
       </c>
@@ -3100,7 +3095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="7" t="s">
         <v>14</v>
       </c>
@@ -3115,7 +3110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="30">
       <c r="A89" s="11" t="s">
         <v>15</v>
       </c>
@@ -3130,7 +3125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="15.75">
       <c r="A90" s="6" t="s">
         <v>4</v>
       </c>
@@ -3144,10 +3139,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="B91" s="13"/>
     </row>
-    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="15.75">
       <c r="A92" s="10" t="s">
         <v>10</v>
       </c>
@@ -3162,14 +3157,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="7"/>
       <c r="B93" s="15"/>
       <c r="C93" s="1"/>
       <c r="D93" s="7"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="7" t="s">
         <v>12</v>
       </c>
@@ -3184,7 +3179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="7" t="s">
         <v>13</v>
       </c>
@@ -3199,7 +3194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="7" t="s">
         <v>14</v>
       </c>
@@ -3214,7 +3209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="30">
       <c r="A97" s="11" t="s">
         <v>15</v>
       </c>
@@ -3229,7 +3224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="15.75">
       <c r="A98" s="6" t="s">
         <v>4</v>
       </c>
@@ -3243,10 +3238,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="B99" s="13"/>
     </row>
-    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="15.75">
       <c r="A100" s="10" t="s">
         <v>10</v>
       </c>
@@ -3261,14 +3256,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="7"/>
       <c r="B101" s="15"/>
       <c r="C101" s="1"/>
       <c r="D101" s="7"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="7" t="s">
         <v>12</v>
       </c>
@@ -3283,7 +3278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" s="7" t="s">
         <v>13</v>
       </c>
@@ -3298,7 +3293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="7" t="s">
         <v>14</v>
       </c>
@@ -3313,7 +3308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="30">
       <c r="A105" s="11" t="s">
         <v>15</v>
       </c>
@@ -3328,7 +3323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="15.75">
       <c r="A106" s="6" t="s">
         <v>4</v>
       </c>
@@ -3342,10 +3337,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="B107" s="13"/>
     </row>
-    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="15.75">
       <c r="A108" s="10" t="s">
         <v>10</v>
       </c>
@@ -3359,13 +3354,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" s="7"/>
       <c r="B109" s="15"/>
       <c r="D109" s="7"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" s="7" t="s">
         <v>12</v>
       </c>
@@ -3379,7 +3374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" s="7" t="s">
         <v>13</v>
       </c>
@@ -3393,7 +3388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" s="7" t="s">
         <v>14</v>
       </c>
@@ -3407,7 +3402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="30">
       <c r="A113" s="11" t="s">
         <v>15</v>
       </c>
@@ -3421,7 +3416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="15.75">
       <c r="A114" s="6" t="s">
         <v>4</v>
       </c>
@@ -3435,10 +3430,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="B115" s="13"/>
     </row>
-    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="15.75">
       <c r="A116" s="10" t="s">
         <v>10</v>
       </c>
@@ -3452,13 +3447,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" s="7"/>
       <c r="B117" s="15"/>
       <c r="D117" s="7"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" s="7" t="s">
         <v>12</v>
       </c>
@@ -3472,7 +3467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" s="7" t="s">
         <v>13</v>
       </c>
@@ -3486,7 +3481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120" s="7" t="s">
         <v>14</v>
       </c>
@@ -3500,7 +3495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="30">
       <c r="A121" s="11" t="s">
         <v>15</v>
       </c>
@@ -3514,7 +3509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="15.75">
       <c r="A122" s="6" t="s">
         <v>4</v>
       </c>
@@ -3528,10 +3523,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="B123" s="13"/>
     </row>
-    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="15.75">
       <c r="A124" s="10" t="s">
         <v>10</v>
       </c>
@@ -3545,13 +3540,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" s="7"/>
       <c r="B125" s="15"/>
       <c r="D125" s="7"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" s="7" t="s">
         <v>12</v>
       </c>
@@ -3565,7 +3560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" s="7" t="s">
         <v>13</v>
       </c>
@@ -3579,7 +3574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" s="7" t="s">
         <v>14</v>
       </c>
@@ -3593,7 +3588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="30">
       <c r="A129" s="11" t="s">
         <v>15</v>
       </c>
@@ -3607,7 +3602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="15.75">
       <c r="A130" s="6" t="s">
         <v>4</v>
       </c>
@@ -3621,7 +3616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="15.75">
       <c r="A132" s="10" t="s">
         <v>10</v>
       </c>
@@ -3635,13 +3630,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133" s="7"/>
       <c r="B133" s="15"/>
       <c r="D133" s="7"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134" s="7" t="s">
         <v>12</v>
       </c>
@@ -3655,7 +3650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135" s="7" t="s">
         <v>13</v>
       </c>
@@ -3669,7 +3664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5">
       <c r="A136" s="7" t="s">
         <v>14</v>
       </c>
@@ -3683,7 +3678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" ht="30">
       <c r="A137" s="11" t="s">
         <v>15</v>
       </c>
@@ -3697,7 +3692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="15.75">
       <c r="A138" s="6" t="s">
         <v>4</v>
       </c>
@@ -3725,21 +3720,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView topLeftCell="A101" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="76" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="70.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -3748,21 +3743,21 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -3777,14 +3772,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="7"/>
       <c r="B5" s="15"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -3799,7 +3794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -3814,7 +3809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -3829,7 +3824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -3844,7 +3839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -3858,10 +3853,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3876,14 +3871,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="7"/>
       <c r="B13" s="15"/>
       <c r="C13" s="1"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
@@ -3898,7 +3893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -3913,7 +3908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
@@ -3928,7 +3923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -3943,7 +3938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -3957,10 +3952,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -3975,14 +3970,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="7"/>
       <c r="B21" s="15"/>
       <c r="C21" s="1"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
@@ -3997,7 +3992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
@@ -4012,7 +4007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
@@ -4027,7 +4022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
@@ -4042,7 +4037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -4056,10 +4051,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
@@ -4074,14 +4069,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="15"/>
       <c r="C29" s="1"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
         <v>16</v>
       </c>
@@ -4096,7 +4091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
@@ -4111,7 +4106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
         <v>18</v>
       </c>
@@ -4126,7 +4121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="30">
       <c r="A33" s="11" t="s">
         <v>19</v>
       </c>
@@ -4141,7 +4136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -4155,10 +4150,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15.75">
       <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
@@ -4173,14 +4168,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="7"/>
       <c r="B37" s="15"/>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -4195,7 +4190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
@@ -4210,7 +4205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
         <v>18</v>
       </c>
@@ -4225,7 +4220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="30">
       <c r="A41" s="11" t="s">
         <v>19</v>
       </c>
@@ -4240,7 +4235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.75">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -4254,11 +4249,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15.75">
       <c r="B43" s="16"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="15.75">
       <c r="A44" s="10" t="s">
         <v>11</v>
       </c>
@@ -4273,14 +4268,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="7"/>
       <c r="B45" s="15"/>
       <c r="C45" s="1"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
         <v>16</v>
       </c>
@@ -4295,7 +4290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="7" t="s">
         <v>17</v>
       </c>
@@ -4310,7 +4305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="7" t="s">
         <v>18</v>
       </c>
@@ -4325,7 +4320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="30">
       <c r="A49" s="11" t="s">
         <v>19</v>
       </c>
@@ -4340,7 +4335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="15.75">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -4354,11 +4349,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="15.75">
       <c r="B51" s="19"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="15.75">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -4373,14 +4368,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="7"/>
       <c r="B53" s="15"/>
       <c r="C53" s="1"/>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4395,7 +4390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="7" t="s">
         <v>17</v>
       </c>
@@ -4410,7 +4405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="7" t="s">
         <v>18</v>
       </c>
@@ -4425,7 +4420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="30">
       <c r="A57" s="11" t="s">
         <v>19</v>
       </c>
@@ -4440,7 +4435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="15.75">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -4454,11 +4449,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="15.75">
       <c r="B59" s="13"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="15.75">
       <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
@@ -4473,14 +4468,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="7"/>
       <c r="B61" s="15"/>
       <c r="C61" s="1"/>
       <c r="D61" s="7"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="7" t="s">
         <v>16</v>
       </c>
@@ -4495,7 +4490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="7" t="s">
         <v>17</v>
       </c>
@@ -4510,7 +4505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="7" t="s">
         <v>18</v>
       </c>
@@ -4525,7 +4520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="30">
       <c r="A65" s="11" t="s">
         <v>19</v>
       </c>
@@ -4540,7 +4535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="15.75">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -4554,11 +4549,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" s="12" customFormat="1" ht="15.75">
       <c r="B67" s="20"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="15.75">
       <c r="A68" s="10" t="s">
         <v>11</v>
       </c>
@@ -4573,14 +4568,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="7"/>
       <c r="B69" s="15"/>
       <c r="C69" s="1"/>
       <c r="D69" s="7"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="7" t="s">
         <v>16</v>
       </c>
@@ -4595,7 +4590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="7" t="s">
         <v>17</v>
       </c>
@@ -4610,7 +4605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="7" t="s">
         <v>18</v>
       </c>
@@ -4625,7 +4620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="30">
       <c r="A73" s="11" t="s">
         <v>19</v>
       </c>
@@ -4640,7 +4635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="6" t="s">
         <v>4</v>
       </c>
@@ -4654,10 +4649,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="B75" s="13"/>
     </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="15.75">
       <c r="A76" s="10" t="s">
         <v>11</v>
       </c>
@@ -4672,14 +4667,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="7"/>
       <c r="B77" s="15"/>
       <c r="C77" s="1"/>
       <c r="D77" s="7"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="7" t="s">
         <v>16</v>
       </c>
@@ -4694,7 +4689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="7" t="s">
         <v>17</v>
       </c>
@@ -4709,7 +4704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="7" t="s">
         <v>18</v>
       </c>
@@ -4724,7 +4719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="30">
       <c r="A81" s="11" t="s">
         <v>19</v>
       </c>
@@ -4739,7 +4734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="15.75">
       <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
@@ -4753,10 +4748,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="B83" s="13"/>
     </row>
-    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="15.75">
       <c r="A84" s="10" t="s">
         <v>11</v>
       </c>
@@ -4771,14 +4766,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="7"/>
       <c r="B85" s="15"/>
       <c r="C85" s="1"/>
       <c r="D85" s="7"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="7" t="s">
         <v>16</v>
       </c>
@@ -4793,7 +4788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="7" t="s">
         <v>17</v>
       </c>
@@ -4808,7 +4803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="7" t="s">
         <v>18</v>
       </c>
@@ -4823,7 +4818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="30">
       <c r="A89" s="11" t="s">
         <v>19</v>
       </c>
@@ -4838,7 +4833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="15.75">
       <c r="A90" s="6" t="s">
         <v>4</v>
       </c>
@@ -4852,10 +4847,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="B91" s="13"/>
     </row>
-    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="15.75">
       <c r="A92" s="10" t="s">
         <v>11</v>
       </c>
@@ -4870,14 +4865,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="7"/>
       <c r="B93" s="15"/>
       <c r="C93" s="1"/>
       <c r="D93" s="7"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="7" t="s">
         <v>16</v>
       </c>
@@ -4892,7 +4887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="7" t="s">
         <v>17</v>
       </c>
@@ -4907,7 +4902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="7" t="s">
         <v>18</v>
       </c>
@@ -4922,7 +4917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="30">
       <c r="A97" s="11" t="s">
         <v>19</v>
       </c>
@@ -4937,7 +4932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="15.75">
       <c r="A98" s="6" t="s">
         <v>4</v>
       </c>
@@ -4951,10 +4946,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="B99" s="13"/>
     </row>
-    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="15.75">
       <c r="A100" s="10" t="s">
         <v>11</v>
       </c>
@@ -4969,14 +4964,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="7"/>
       <c r="B101" s="15"/>
       <c r="C101" s="1"/>
       <c r="D101" s="7"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="7" t="s">
         <v>16</v>
       </c>
@@ -4991,7 +4986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" s="7" t="s">
         <v>17</v>
       </c>
@@ -5006,7 +5001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="7" t="s">
         <v>18</v>
       </c>
@@ -5021,7 +5016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="30">
       <c r="A105" s="11" t="s">
         <v>19</v>
       </c>
@@ -5036,7 +5031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="15.75">
       <c r="A106" s="6" t="s">
         <v>4</v>
       </c>
@@ -5050,10 +5045,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="B107" s="13"/>
     </row>
-    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="15.75">
       <c r="A108" s="10" t="s">
         <v>11</v>
       </c>
@@ -5068,14 +5063,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" s="7"/>
       <c r="B109" s="15"/>
       <c r="C109" s="1"/>
       <c r="D109" s="7"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" s="7" t="s">
         <v>16</v>
       </c>
@@ -5090,7 +5085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" s="7" t="s">
         <v>17</v>
       </c>
@@ -5105,7 +5100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" s="7" t="s">
         <v>18</v>
       </c>
@@ -5120,7 +5115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="30">
       <c r="A113" s="11" t="s">
         <v>19</v>
       </c>
@@ -5135,7 +5130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="15.75">
       <c r="A114" s="6" t="s">
         <v>4</v>
       </c>
@@ -5149,10 +5144,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="B115" s="13"/>
     </row>
-    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="15.75">
       <c r="A116" s="10" t="s">
         <v>11</v>
       </c>
@@ -5167,14 +5162,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" s="7"/>
       <c r="B117" s="15"/>
       <c r="C117" s="1"/>
       <c r="D117" s="7"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" s="7" t="s">
         <v>16</v>
       </c>
@@ -5189,7 +5184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" s="7" t="s">
         <v>17</v>
       </c>
@@ -5204,7 +5199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120" s="7" t="s">
         <v>18</v>
       </c>
@@ -5219,7 +5214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="30">
       <c r="A121" s="11" t="s">
         <v>19</v>
       </c>
@@ -5234,7 +5229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="15.75">
       <c r="A122" s="6" t="s">
         <v>4</v>
       </c>
@@ -5248,10 +5243,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="B123" s="13"/>
     </row>
-    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="15.75">
       <c r="A124" s="10" t="s">
         <v>11</v>
       </c>
@@ -5266,14 +5261,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" s="7"/>
       <c r="B125" s="15"/>
       <c r="C125" s="1"/>
       <c r="D125" s="7"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" s="7" t="s">
         <v>16</v>
       </c>
@@ -5288,7 +5283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" s="7" t="s">
         <v>17</v>
       </c>
@@ -5303,7 +5298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" s="7" t="s">
         <v>18</v>
       </c>
@@ -5318,7 +5313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="30">
       <c r="A129" s="11" t="s">
         <v>19</v>
       </c>
@@ -5333,7 +5328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="15.75">
       <c r="A130" s="6" t="s">
         <v>4</v>
       </c>
@@ -5347,7 +5342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="15.75">
       <c r="A132" s="10" t="s">
         <v>11</v>
       </c>
@@ -5361,13 +5356,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133" s="7"/>
       <c r="B133" s="15"/>
       <c r="D133" s="7"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134" s="7" t="s">
         <v>16</v>
       </c>
@@ -5381,7 +5376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135" s="7" t="s">
         <v>17</v>
       </c>
@@ -5395,7 +5390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5">
       <c r="A136" s="7" t="s">
         <v>18</v>
       </c>
@@ -5409,7 +5404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" ht="30">
       <c r="A137" s="11" t="s">
         <v>19</v>
       </c>
@@ -5423,7 +5418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="15.75">
       <c r="A138" s="6" t="s">
         <v>4</v>
       </c>
@@ -5451,21 +5446,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="73.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="77.1640625" customWidth="1"/>
+    <col min="1" max="1" width="73.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="77.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -5474,21 +5469,21 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
@@ -5503,14 +5498,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="7"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
@@ -5525,7 +5520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -5540,7 +5535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -5555,7 +5550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -5570,7 +5565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -5584,7 +5579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
@@ -5599,14 +5594,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="7"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
@@ -5621,7 +5616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -5636,7 +5631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -5651,7 +5646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
@@ -5666,7 +5661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -5680,7 +5675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="10" t="s">
         <v>20</v>
       </c>
@@ -5695,14 +5690,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="7"/>
       <c r="B21" s="5"/>
       <c r="C21" s="1"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
@@ -5717,7 +5712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -5732,7 +5727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -5747,7 +5742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
@@ -5762,7 +5757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -5776,7 +5771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="10" t="s">
         <v>20</v>
       </c>
@@ -5791,14 +5786,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
         <v>21</v>
       </c>
@@ -5813,7 +5808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75">
       <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
@@ -5828,7 +5823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
         <v>23</v>
       </c>
@@ -5843,7 +5838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
@@ -5858,7 +5853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -5872,7 +5867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15.75">
       <c r="A36" s="10" t="s">
         <v>20</v>
       </c>
@@ -5887,14 +5882,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="7"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
         <v>21</v>
       </c>
@@ -5909,7 +5904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15.75">
       <c r="A39" s="4" t="s">
         <v>22</v>
       </c>
@@ -5924,7 +5919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
         <v>23</v>
       </c>
@@ -5939,7 +5934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="7" t="s">
         <v>24</v>
       </c>
@@ -5954,7 +5949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.75">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -5968,11 +5963,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15.75">
       <c r="B43" s="9"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="15.75">
       <c r="A44" s="10" t="s">
         <v>20</v>
       </c>
@@ -5987,14 +5982,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
         <v>21</v>
       </c>
@@ -6009,7 +6004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="15.75">
       <c r="A47" s="4" t="s">
         <v>22</v>
       </c>
@@ -6024,7 +6019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="7" t="s">
         <v>23</v>
       </c>
@@ -6039,7 +6034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="7" t="s">
         <v>24</v>
       </c>
@@ -6054,7 +6049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="15.75">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -6068,8 +6063,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" s="12" customFormat="1"/>
+    <row r="52" spans="1:5" ht="15.75">
       <c r="A52" s="10" t="s">
         <v>20</v>
       </c>
@@ -6084,14 +6079,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="7"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="7" t="s">
         <v>21</v>
       </c>
@@ -6106,7 +6101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="15.75">
       <c r="A55" s="4" t="s">
         <v>22</v>
       </c>
@@ -6121,7 +6116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="7" t="s">
         <v>23</v>
       </c>
@@ -6136,7 +6131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="7" t="s">
         <v>24</v>
       </c>
@@ -6151,7 +6146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="15.75">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -6165,7 +6160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="15.75">
       <c r="A60" s="10" t="s">
         <v>20</v>
       </c>
@@ -6180,14 +6175,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="7"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="7"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="7" t="s">
         <v>21</v>
       </c>
@@ -6202,7 +6197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="15.75">
       <c r="A63" s="4" t="s">
         <v>22</v>
       </c>
@@ -6217,7 +6212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="7" t="s">
         <v>23</v>
       </c>
@@ -6232,7 +6227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="7" t="s">
         <v>24</v>
       </c>
@@ -6247,7 +6242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="15.75">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -6261,7 +6256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="15.75">
       <c r="A68" s="10" t="s">
         <v>20</v>
       </c>
@@ -6276,14 +6271,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="7"/>
       <c r="B69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="7"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="7" t="s">
         <v>21</v>
       </c>
@@ -6298,7 +6293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="15.75">
       <c r="A71" s="4" t="s">
         <v>22</v>
       </c>
@@ -6313,7 +6308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="7" t="s">
         <v>23</v>
       </c>
@@ -6328,7 +6323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="7" t="s">
         <v>24</v>
       </c>
@@ -6343,7 +6338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="6" t="s">
         <v>4</v>
       </c>
@@ -6357,7 +6352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="15.75">
       <c r="A76" s="10" t="s">
         <v>20</v>
       </c>
@@ -6372,14 +6367,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="7"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="7"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="7" t="s">
         <v>21</v>
       </c>
@@ -6394,7 +6389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="15.75">
       <c r="A79" s="4" t="s">
         <v>22</v>
       </c>
@@ -6409,7 +6404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="7" t="s">
         <v>23</v>
       </c>
@@ -6424,7 +6419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="7" t="s">
         <v>24</v>
       </c>
@@ -6439,7 +6434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="15.75">
       <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
@@ -6453,7 +6448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="15.75">
       <c r="A84" s="10" t="s">
         <v>20</v>
       </c>
@@ -6468,14 +6463,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="7"/>
       <c r="B85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="7"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="7" t="s">
         <v>21</v>
       </c>
@@ -6490,7 +6485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="15.75">
       <c r="A87" s="4" t="s">
         <v>22</v>
       </c>
@@ -6505,7 +6500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="7" t="s">
         <v>23</v>
       </c>
@@ -6520,7 +6515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="7" t="s">
         <v>24</v>
       </c>
@@ -6535,7 +6530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="15.75">
       <c r="A90" s="6" t="s">
         <v>4</v>
       </c>
@@ -6549,7 +6544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="15.75">
       <c r="A92" s="10" t="s">
         <v>20</v>
       </c>
@@ -6564,14 +6559,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="7"/>
       <c r="B93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="7"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="7" t="s">
         <v>21</v>
       </c>
@@ -6586,7 +6581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="15.75">
       <c r="A95" s="4" t="s">
         <v>22</v>
       </c>
@@ -6601,7 +6596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="7" t="s">
         <v>23</v>
       </c>
@@ -6616,7 +6611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="7" t="s">
         <v>24</v>
       </c>
@@ -6631,7 +6626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="15.75">
       <c r="A98" s="6" t="s">
         <v>4</v>
       </c>
@@ -6645,7 +6640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="15.75">
       <c r="A100" s="10" t="s">
         <v>20</v>
       </c>
@@ -6660,14 +6655,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="7"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="7"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="7" t="s">
         <v>21</v>
       </c>
@@ -6682,7 +6677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="15.75">
       <c r="A103" s="4" t="s">
         <v>22</v>
       </c>
@@ -6697,7 +6692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="7" t="s">
         <v>23</v>
       </c>
@@ -6712,7 +6707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="7" t="s">
         <v>24</v>
       </c>
@@ -6727,7 +6722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="15.75">
       <c r="A106" s="6" t="s">
         <v>4</v>
       </c>
@@ -6741,7 +6736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="15.75">
       <c r="A108" s="10" t="s">
         <v>20</v>
       </c>
@@ -6756,14 +6751,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" s="7"/>
       <c r="B109" s="5"/>
       <c r="C109" s="1"/>
       <c r="D109" s="7"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" s="7" t="s">
         <v>21</v>
       </c>
@@ -6778,7 +6773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="15.75">
       <c r="A111" s="4" t="s">
         <v>22</v>
       </c>
@@ -6793,7 +6788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" s="7" t="s">
         <v>23</v>
       </c>
@@ -6808,7 +6803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" s="7" t="s">
         <v>24</v>
       </c>
@@ -6823,7 +6818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="15.75">
       <c r="A114" s="6" t="s">
         <v>4</v>
       </c>
@@ -6837,7 +6832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="15.75">
       <c r="A116" s="10" t="s">
         <v>20</v>
       </c>
@@ -6852,14 +6847,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" s="7"/>
       <c r="B117" s="5"/>
       <c r="C117" s="1"/>
       <c r="D117" s="7"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" s="7" t="s">
         <v>21</v>
       </c>
@@ -6874,7 +6869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="15.75">
       <c r="A119" s="4" t="s">
         <v>22</v>
       </c>
@@ -6889,7 +6884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120" s="7" t="s">
         <v>23</v>
       </c>
@@ -6904,7 +6899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121" s="7" t="s">
         <v>24</v>
       </c>
@@ -6919,7 +6914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="15.75">
       <c r="A122" s="6" t="s">
         <v>4</v>
       </c>
@@ -6933,7 +6928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="15.75">
       <c r="A124" s="10" t="s">
         <v>20</v>
       </c>
@@ -6948,14 +6943,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" s="7"/>
       <c r="B125" s="5"/>
       <c r="C125" s="1"/>
       <c r="D125" s="7"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" s="7" t="s">
         <v>21</v>
       </c>
@@ -6970,7 +6965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="15.75">
       <c r="A127" s="4" t="s">
         <v>22</v>
       </c>
@@ -6985,7 +6980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" s="7" t="s">
         <v>23</v>
       </c>
@@ -7000,7 +6995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129" s="7" t="s">
         <v>24</v>
       </c>
@@ -7015,7 +7010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="15.75">
       <c r="A130" s="6" t="s">
         <v>4</v>
       </c>
@@ -7043,23 +7038,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="75" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="70.5" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="70.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -7068,21 +7063,21 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
@@ -7097,14 +7092,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="7"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -7119,7 +7114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -7134,7 +7129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -7149,7 +7144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -7164,7 +7159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -7178,7 +7173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
@@ -7193,14 +7188,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="7"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -7215,7 +7210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -7230,7 +7225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -7245,7 +7240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -7260,7 +7255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -7274,7 +7269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
@@ -7289,14 +7284,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="7"/>
       <c r="B21" s="5"/>
       <c r="C21" s="1"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -7311,7 +7306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -7326,7 +7321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -7341,7 +7336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -7356,7 +7351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -7370,7 +7365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="10" t="s">
         <v>25</v>
       </c>
@@ -7385,14 +7380,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
@@ -7407,7 +7402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75">
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
@@ -7422,7 +7417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
@@ -7437,7 +7432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
@@ -7452,7 +7447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -7466,7 +7461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15.75">
       <c r="A36" s="10" t="s">
         <v>25</v>
       </c>
@@ -7481,14 +7476,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="7"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
         <v>26</v>
       </c>
@@ -7503,7 +7498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15.75">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
@@ -7518,7 +7513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
         <v>28</v>
       </c>
@@ -7533,7 +7528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
@@ -7548,7 +7543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.75">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -7562,11 +7557,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15.75">
       <c r="B43" s="9"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="15.75">
       <c r="A44" s="10" t="s">
         <v>25</v>
       </c>
@@ -7581,14 +7576,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
         <v>26</v>
       </c>
@@ -7603,7 +7598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="15.75">
       <c r="A47" s="4" t="s">
         <v>27</v>
       </c>
@@ -7618,7 +7613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="7" t="s">
         <v>28</v>
       </c>
@@ -7633,7 +7628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="7" t="s">
         <v>29</v>
       </c>
@@ -7648,7 +7643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="15.75">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -7662,8 +7657,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" s="12" customFormat="1"/>
+    <row r="52" spans="1:5" ht="15.75">
       <c r="A52" s="10" t="s">
         <v>25</v>
       </c>
@@ -7678,14 +7673,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="7"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -7700,7 +7695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="15.75">
       <c r="A55" s="4" t="s">
         <v>27</v>
       </c>
@@ -7715,7 +7710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="7" t="s">
         <v>28</v>
       </c>
@@ -7730,7 +7725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="7" t="s">
         <v>29</v>
       </c>
@@ -7745,7 +7740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="15.75">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -7759,7 +7754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="15.75">
       <c r="A60" s="10" t="s">
         <v>25</v>
       </c>
@@ -7774,14 +7769,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="7"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="7"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="7" t="s">
         <v>26</v>
       </c>
@@ -7796,7 +7791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="15.75">
       <c r="A63" s="4" t="s">
         <v>27</v>
       </c>
@@ -7811,7 +7806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="7" t="s">
         <v>28</v>
       </c>
@@ -7826,7 +7821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="7" t="s">
         <v>29</v>
       </c>
@@ -7841,7 +7836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="15.75">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -7855,7 +7850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="15.75">
       <c r="A68" s="10" t="s">
         <v>25</v>
       </c>
@@ -7870,14 +7865,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="7"/>
       <c r="B69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="7"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="7" t="s">
         <v>26</v>
       </c>
@@ -7892,7 +7887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="15.75">
       <c r="A71" s="4" t="s">
         <v>27</v>
       </c>
@@ -7907,7 +7902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="7" t="s">
         <v>28</v>
       </c>
@@ -7922,7 +7917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="7" t="s">
         <v>29</v>
       </c>
@@ -7937,7 +7932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="6" t="s">
         <v>4</v>
       </c>
@@ -7951,7 +7946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="15.75">
       <c r="A76" s="10" t="s">
         <v>25</v>
       </c>
@@ -7966,14 +7961,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="7"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="7"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="7" t="s">
         <v>26</v>
       </c>
@@ -7988,7 +7983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="15.75">
       <c r="A79" s="4" t="s">
         <v>27</v>
       </c>
@@ -8003,7 +7998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="7" t="s">
         <v>28</v>
       </c>
@@ -8018,7 +8013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="7" t="s">
         <v>29</v>
       </c>
@@ -8033,7 +8028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="15.75">
       <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
@@ -8047,7 +8042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="15.75">
       <c r="A84" s="10" t="s">
         <v>25</v>
       </c>
@@ -8062,14 +8057,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="7"/>
       <c r="B85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="7"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="7" t="s">
         <v>26</v>
       </c>
@@ -8084,7 +8079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="15.75">
       <c r="A87" s="4" t="s">
         <v>27</v>
       </c>
@@ -8099,7 +8094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="7" t="s">
         <v>28</v>
       </c>
@@ -8114,7 +8109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="7" t="s">
         <v>29</v>
       </c>
@@ -8129,7 +8124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="15.75">
       <c r="A90" s="6" t="s">
         <v>4</v>
       </c>
@@ -8143,7 +8138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="15.75">
       <c r="A92" s="10" t="s">
         <v>25</v>
       </c>
@@ -8158,14 +8153,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="7"/>
       <c r="B93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="7"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="7" t="s">
         <v>26</v>
       </c>
@@ -8180,7 +8175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="15.75">
       <c r="A95" s="4" t="s">
         <v>27</v>
       </c>
@@ -8195,7 +8190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="7" t="s">
         <v>28</v>
       </c>
@@ -8210,7 +8205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="7" t="s">
         <v>29</v>
       </c>
@@ -8225,7 +8220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="15.75">
       <c r="A98" s="6" t="s">
         <v>4</v>
       </c>
@@ -8239,7 +8234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="15.75">
       <c r="A100" s="10" t="s">
         <v>25</v>
       </c>
@@ -8254,14 +8249,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="7"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="7"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="7" t="s">
         <v>26</v>
       </c>
@@ -8276,7 +8271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="15.75">
       <c r="A103" s="4" t="s">
         <v>27</v>
       </c>
@@ -8291,7 +8286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="7" t="s">
         <v>28</v>
       </c>
@@ -8306,7 +8301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -8321,7 +8316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="15.75">
       <c r="A106" s="6" t="s">
         <v>4</v>
       </c>
@@ -8349,22 +8344,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="84.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="18"/>
-    <col min="4" max="4" width="76.83203125" customWidth="1"/>
+    <col min="1" max="1" width="84.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="18"/>
+    <col min="4" max="4" width="76.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -8373,21 +8368,21 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
@@ -8403,7 +8398,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="5"/>
       <c r="C5" s="27"/>
@@ -8411,7 +8406,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.95" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
@@ -8427,7 +8422,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -8443,7 +8438,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
@@ -8459,7 +8454,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
@@ -8475,7 +8470,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -8491,10 +8486,10 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -8510,7 +8505,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="7"/>
       <c r="B13" s="5"/>
       <c r="C13" s="27"/>
@@ -8518,7 +8513,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -8534,7 +8529,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -8550,7 +8545,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -8566,7 +8561,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -8582,7 +8577,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -8598,10 +8593,10 @@
       </c>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="C19" s="28"/>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="10" t="s">
         <v>30</v>
       </c>
@@ -8617,7 +8612,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="7"/>
       <c r="B21" s="5"/>
       <c r="C21" s="27"/>
@@ -8625,7 +8620,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
@@ -8641,7 +8636,7 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
@@ -8657,7 +8652,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
         <v>33</v>
       </c>
@@ -8673,7 +8668,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
@@ -8689,7 +8684,7 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15.75">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -8705,10 +8700,10 @@
       </c>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="C27" s="28"/>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="10" t="s">
         <v>30</v>
       </c>
@@ -8724,7 +8719,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="C29" s="27"/>
@@ -8732,7 +8727,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
@@ -8748,7 +8743,7 @@
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.75">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -8764,7 +8759,7 @@
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="7" t="s">
         <v>33</v>
       </c>
@@ -8780,7 +8775,7 @@
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
@@ -8796,7 +8791,7 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -8812,10 +8807,10 @@
       </c>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="C35" s="28"/>
     </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="10" t="s">
         <v>30</v>
       </c>
@@ -8831,7 +8826,7 @@
       </c>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="7"/>
       <c r="B37" s="5"/>
       <c r="C37" s="27"/>
@@ -8839,7 +8834,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="7" t="s">
         <v>31</v>
       </c>
@@ -8855,7 +8850,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15.75">
       <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
@@ -8871,7 +8866,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="7" t="s">
         <v>33</v>
       </c>
@@ -8887,7 +8882,7 @@
       </c>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="7" t="s">
         <v>34</v>
       </c>
@@ -8903,7 +8898,7 @@
       </c>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15.75">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -8919,13 +8914,13 @@
       </c>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15.75">
       <c r="B43" s="9"/>
       <c r="C43" s="19"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15.75">
       <c r="A44" s="10" t="s">
         <v>30</v>
       </c>
@@ -8941,7 +8936,7 @@
       </c>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="27"/>
@@ -8949,7 +8944,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="7" t="s">
         <v>31</v>
       </c>
@@ -8965,7 +8960,7 @@
       </c>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15.75">
       <c r="A47" s="4" t="s">
         <v>32</v>
       </c>
@@ -8981,7 +8976,7 @@
       </c>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="7" t="s">
         <v>33</v>
       </c>
@@ -8997,7 +8992,7 @@
       </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="7" t="s">
         <v>34</v>
       </c>
@@ -9013,7 +9008,7 @@
       </c>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -9029,7 +9024,7 @@
       </c>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="15.75">
       <c r="A51" s="6"/>
       <c r="B51" s="9"/>
       <c r="C51" s="19"/>
@@ -9037,7 +9032,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15.75">
       <c r="A52" s="10" t="s">
         <v>30</v>
       </c>
@@ -9053,7 +9048,7 @@
       </c>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="7"/>
       <c r="B53" s="5"/>
       <c r="C53" s="27"/>
@@ -9061,7 +9056,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="7" t="s">
         <v>31</v>
       </c>
@@ -9077,7 +9072,7 @@
       </c>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15.75">
       <c r="A55" s="4" t="s">
         <v>32</v>
       </c>
@@ -9093,7 +9088,7 @@
       </c>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="7" t="s">
         <v>33</v>
       </c>
@@ -9109,7 +9104,7 @@
       </c>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="7" t="s">
         <v>34</v>
       </c>
@@ -9125,7 +9120,7 @@
       </c>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15.75">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -9141,12 +9136,12 @@
       </c>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15.75">
       <c r="C59" s="28"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15.75">
       <c r="A60" s="10" t="s">
         <v>30</v>
       </c>
@@ -9162,7 +9157,7 @@
       </c>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="7"/>
       <c r="B61" s="5"/>
       <c r="C61" s="27"/>
@@ -9170,7 +9165,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="7" t="s">
         <v>31</v>
       </c>
@@ -9186,7 +9181,7 @@
       </c>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15.75">
       <c r="A63" s="4" t="s">
         <v>32</v>
       </c>
@@ -9202,7 +9197,7 @@
       </c>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="7" t="s">
         <v>33</v>
       </c>
@@ -9218,7 +9213,7 @@
       </c>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="7" t="s">
         <v>34</v>
       </c>
@@ -9234,7 +9229,7 @@
       </c>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="15.75">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -9250,7 +9245,7 @@
       </c>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="15.75">
       <c r="A67" s="6"/>
       <c r="B67" s="9"/>
       <c r="C67" s="19"/>
@@ -9258,11 +9253,11 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:6" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" s="12" customFormat="1" ht="15.75">
       <c r="C68" s="19"/>
       <c r="F68" s="21"/>
     </row>
-    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="15.75">
       <c r="A69" s="10" t="s">
         <v>30</v>
       </c>
@@ -9278,7 +9273,7 @@
       </c>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="7"/>
       <c r="B70" s="5"/>
       <c r="C70" s="27"/>
@@ -9286,7 +9281,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="7" t="s">
         <v>31</v>
       </c>
@@ -9302,7 +9297,7 @@
       </c>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="15.75">
       <c r="A72" s="4" t="s">
         <v>32</v>
       </c>
@@ -9318,7 +9313,7 @@
       </c>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="7" t="s">
         <v>33</v>
       </c>
@@ -9334,7 +9329,7 @@
       </c>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="7" t="s">
         <v>34</v>
       </c>
@@ -9350,7 +9345,7 @@
       </c>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="15.75">
       <c r="A75" s="6" t="s">
         <v>4</v>
       </c>
@@ -9366,10 +9361,10 @@
       </c>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="C76" s="28"/>
     </row>
-    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="15.75">
       <c r="A77" s="10" t="s">
         <v>30</v>
       </c>
@@ -9385,7 +9380,7 @@
       </c>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="7"/>
       <c r="B78" s="5"/>
       <c r="C78" s="27"/>
@@ -9393,7 +9388,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="7" t="s">
         <v>31</v>
       </c>
@@ -9409,7 +9404,7 @@
       </c>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="15.75">
       <c r="A80" s="4" t="s">
         <v>32</v>
       </c>
@@ -9425,7 +9420,7 @@
       </c>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="7" t="s">
         <v>33</v>
       </c>
@@ -9441,7 +9436,7 @@
       </c>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="7" t="s">
         <v>34</v>
       </c>
@@ -9457,7 +9452,7 @@
       </c>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="15.75">
       <c r="A83" s="6" t="s">
         <v>4</v>
       </c>
@@ -9473,10 +9468,10 @@
       </c>
       <c r="F83" s="9"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="C84" s="28"/>
     </row>
-    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="15.75">
       <c r="A85" s="10" t="s">
         <v>30</v>
       </c>
@@ -9492,7 +9487,7 @@
       </c>
       <c r="F85" s="8"/>
     </row>
-    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="7"/>
       <c r="B86" s="5"/>
       <c r="C86" s="27"/>
@@ -9500,7 +9495,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="7" t="s">
         <v>31</v>
       </c>
@@ -9516,7 +9511,7 @@
       </c>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="4" t="s">
         <v>32</v>
       </c>
@@ -9532,7 +9527,7 @@
       </c>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="7" t="s">
         <v>33</v>
       </c>
@@ -9548,7 +9543,7 @@
       </c>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="7" t="s">
         <v>34</v>
       </c>
@@ -9564,7 +9559,7 @@
       </c>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="15.75">
       <c r="A91" s="6" t="s">
         <v>4</v>
       </c>
@@ -9580,10 +9575,10 @@
       </c>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="C92" s="28"/>
     </row>
-    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="15.75">
       <c r="A93" s="10" t="s">
         <v>30</v>
       </c>
@@ -9599,7 +9594,7 @@
       </c>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="7"/>
       <c r="B94" s="5"/>
       <c r="C94" s="27"/>
@@ -9607,7 +9602,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="7" t="s">
         <v>31</v>
       </c>
@@ -9623,7 +9618,7 @@
       </c>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="15.75">
       <c r="A96" s="4" t="s">
         <v>32</v>
       </c>
@@ -9639,7 +9634,7 @@
       </c>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="7" t="s">
         <v>33</v>
       </c>
@@ -9655,7 +9650,7 @@
       </c>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="7" t="s">
         <v>34</v>
       </c>
@@ -9671,7 +9666,7 @@
       </c>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="15.75">
       <c r="A99" s="6" t="s">
         <v>4</v>
       </c>
@@ -9687,10 +9682,10 @@
       </c>
       <c r="F99" s="9"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="C100" s="28"/>
     </row>
-    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="15.75">
       <c r="A101" s="10" t="s">
         <v>30</v>
       </c>
@@ -9706,7 +9701,7 @@
       </c>
       <c r="F101" s="8"/>
     </row>
-    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="7"/>
       <c r="B102" s="5"/>
       <c r="C102" s="27"/>
@@ -9714,7 +9709,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="7" t="s">
         <v>31</v>
       </c>
@@ -9730,7 +9725,7 @@
       </c>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="15.75">
       <c r="A104" s="4" t="s">
         <v>32</v>
       </c>
@@ -9746,7 +9741,7 @@
       </c>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" s="7" t="s">
         <v>33</v>
       </c>
@@ -9762,7 +9757,7 @@
       </c>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" s="7" t="s">
         <v>34</v>
       </c>
@@ -9778,7 +9773,7 @@
       </c>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="15.75">
       <c r="A107" s="6" t="s">
         <v>4</v>
       </c>
@@ -9794,10 +9789,10 @@
       </c>
       <c r="F107" s="9"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="C108" s="28"/>
     </row>
-    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="15.75">
       <c r="A109" s="10" t="s">
         <v>30</v>
       </c>
@@ -9813,7 +9808,7 @@
       </c>
       <c r="F109" s="8"/>
     </row>
-    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" s="7"/>
       <c r="B110" s="5"/>
       <c r="C110" s="27"/>
@@ -9821,7 +9816,7 @@
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" s="7" t="s">
         <v>31</v>
       </c>
@@ -9837,7 +9832,7 @@
       </c>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="15.75">
       <c r="A112" s="4" t="s">
         <v>32</v>
       </c>
@@ -9853,7 +9848,7 @@
       </c>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="7" t="s">
         <v>33</v>
       </c>
@@ -9869,7 +9864,7 @@
       </c>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="7" t="s">
         <v>34</v>
       </c>
@@ -9885,7 +9880,7 @@
       </c>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="15.75">
       <c r="A115" s="6" t="s">
         <v>4</v>
       </c>
@@ -9901,10 +9896,10 @@
       </c>
       <c r="F115" s="9"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="C116" s="28"/>
     </row>
-    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="15.75">
       <c r="A117" s="10" t="s">
         <v>30</v>
       </c>
@@ -9920,7 +9915,7 @@
       </c>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" s="7"/>
       <c r="B118" s="5"/>
       <c r="C118" s="27"/>
@@ -9928,7 +9923,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" s="7" t="s">
         <v>31</v>
       </c>
@@ -9944,7 +9939,7 @@
       </c>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="15.75">
       <c r="A120" s="4" t="s">
         <v>32</v>
       </c>
@@ -9960,7 +9955,7 @@
       </c>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" s="7" t="s">
         <v>33</v>
       </c>
@@ -9976,7 +9971,7 @@
       </c>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" s="7" t="s">
         <v>34</v>
       </c>
@@ -9992,7 +9987,7 @@
       </c>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="15.75">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
@@ -10008,10 +10003,10 @@
       </c>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="C124" s="28"/>
     </row>
-    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="15.75">
       <c r="A125" s="10" t="s">
         <v>30</v>
       </c>
@@ -10027,7 +10022,7 @@
       </c>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="7"/>
       <c r="B126" s="5"/>
       <c r="C126" s="27"/>
@@ -10035,7 +10030,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" s="7" t="s">
         <v>31</v>
       </c>
@@ -10051,7 +10046,7 @@
       </c>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="15.75">
       <c r="A128" s="4" t="s">
         <v>32</v>
       </c>
@@ -10067,7 +10062,7 @@
       </c>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" s="7" t="s">
         <v>33</v>
       </c>
@@ -10083,7 +10078,7 @@
       </c>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" s="7" t="s">
         <v>34</v>
       </c>
@@ -10099,7 +10094,7 @@
       </c>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="15.75">
       <c r="A131" s="6" t="s">
         <v>4</v>
       </c>
@@ -10115,10 +10110,10 @@
       </c>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="C132" s="28"/>
     </row>
-    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="15.75">
       <c r="A133" s="10" t="s">
         <v>30</v>
       </c>
@@ -10134,7 +10129,7 @@
       </c>
       <c r="F133" s="8"/>
     </row>
-    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" s="7"/>
       <c r="B134" s="5"/>
       <c r="C134" s="27"/>
@@ -10142,7 +10137,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" s="7" t="s">
         <v>31</v>
       </c>
@@ -10158,7 +10153,7 @@
       </c>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="15.75">
       <c r="A136" s="4" t="s">
         <v>32</v>
       </c>
@@ -10174,7 +10169,7 @@
       </c>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" s="7" t="s">
         <v>33</v>
       </c>
@@ -10190,7 +10185,7 @@
       </c>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" s="7" t="s">
         <v>34</v>
       </c>
@@ -10206,7 +10201,7 @@
       </c>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="15.75">
       <c r="A139" s="6" t="s">
         <v>4</v>
       </c>
@@ -10236,24 +10231,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:XFD167"/>
+    <sheetView tabSelected="1" topLeftCell="D86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="72.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="22" customWidth="1"/>
+    <col min="1" max="1" width="72.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="22" customWidth="1"/>
     <col min="4" max="4" width="76" style="22" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="22"/>
+    <col min="5" max="5" width="14.42578125" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -10262,21 +10257,21 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>36</v>
       </c>
@@ -10291,14 +10286,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="7"/>
       <c r="B5" s="5"/>
       <c r="C5" s="23"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -10313,7 +10308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="25" t="s">
         <v>38</v>
       </c>
@@ -10328,7 +10323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
@@ -10343,7 +10338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
@@ -10358,7 +10353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -10373,7 +10368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
@@ -10388,7 +10383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -10402,7 +10397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="10" t="s">
         <v>36</v>
       </c>
@@ -10417,14 +10412,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="7"/>
       <c r="B15" s="5"/>
       <c r="C15" s="23"/>
       <c r="D15" s="7"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
@@ -10439,7 +10434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="25" t="s">
         <v>38</v>
       </c>
@@ -10454,7 +10449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
@@ -10469,7 +10464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -10484,7 +10479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
@@ -10499,7 +10494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
@@ -10514,7 +10509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -10528,7 +10523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="10" t="s">
         <v>36</v>
       </c>
@@ -10543,14 +10538,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="23"/>
       <c r="D25" s="7"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
         <v>37</v>
       </c>
@@ -10565,7 +10560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15.75">
       <c r="A27" s="25" t="s">
         <v>38</v>
       </c>
@@ -10580,7 +10575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
@@ -10595,7 +10590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="7" t="s">
         <v>40</v>
       </c>
@@ -10610,7 +10605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
         <v>41</v>
       </c>
@@ -10625,7 +10620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -10640,7 +10635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.75">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -10654,7 +10649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
@@ -10669,14 +10664,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="7"/>
       <c r="B35" s="5"/>
       <c r="C35" s="23"/>
       <c r="D35" s="7"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -10691,7 +10686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15.75">
       <c r="A37" s="25" t="s">
         <v>38</v>
       </c>
@@ -10706,7 +10701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
         <v>39</v>
       </c>
@@ -10721,7 +10716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
@@ -10736,7 +10731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
         <v>41</v>
       </c>
@@ -10751,7 +10746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -10766,7 +10761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.75">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -10780,7 +10775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="15.75">
       <c r="A44" s="10" t="s">
         <v>36</v>
       </c>
@@ -10795,14 +10790,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="23"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
         <v>37</v>
       </c>
@@ -10817,7 +10812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="15.75">
       <c r="A47" s="25" t="s">
         <v>38</v>
       </c>
@@ -10832,7 +10827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="7" t="s">
         <v>39</v>
       </c>
@@ -10847,7 +10842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="7" t="s">
         <v>40</v>
       </c>
@@ -10862,7 +10857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="7" t="s">
         <v>41</v>
       </c>
@@ -10877,7 +10872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="7" t="s">
         <v>42</v>
       </c>
@@ -10892,7 +10887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="15.75">
       <c r="A52" s="6" t="s">
         <v>4</v>
       </c>
@@ -10906,7 +10901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="15.75">
       <c r="A54" s="10" t="s">
         <v>36</v>
       </c>
@@ -10921,14 +10916,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="7"/>
       <c r="B55" s="5"/>
       <c r="C55" s="23"/>
       <c r="D55" s="7"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="7" t="s">
         <v>37</v>
       </c>
@@ -10943,7 +10938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="15.75">
       <c r="A57" s="25" t="s">
         <v>38</v>
       </c>
@@ -10958,7 +10953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="7" t="s">
         <v>39</v>
       </c>
@@ -10973,7 +10968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="7" t="s">
         <v>40</v>
       </c>
@@ -10988,7 +10983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="7" t="s">
         <v>41</v>
       </c>
@@ -11003,7 +10998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="7" t="s">
         <v>42</v>
       </c>
@@ -11018,7 +11013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="15.75">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -11032,7 +11027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="15.75">
       <c r="A64" s="10" t="s">
         <v>36</v>
       </c>
@@ -11047,14 +11042,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="7"/>
       <c r="B65" s="5"/>
       <c r="C65" s="23"/>
       <c r="D65" s="7"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="7" t="s">
         <v>37</v>
       </c>
@@ -11069,7 +11064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="15.75">
       <c r="A67" s="25" t="s">
         <v>38</v>
       </c>
@@ -11084,7 +11079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="7" t="s">
         <v>39</v>
       </c>
@@ -11099,7 +11094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="7" t="s">
         <v>40</v>
       </c>
@@ -11114,7 +11109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="7" t="s">
         <v>41</v>
       </c>
@@ -11129,7 +11124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="7" t="s">
         <v>42</v>
       </c>
@@ -11144,7 +11139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="15.75">
       <c r="A72" s="6" t="s">
         <v>4</v>
       </c>
@@ -11158,7 +11153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="10" t="s">
         <v>36</v>
       </c>
@@ -11173,14 +11168,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="7"/>
       <c r="B75" s="5"/>
       <c r="C75" s="23"/>
       <c r="D75" s="7"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="7" t="s">
         <v>37</v>
       </c>
@@ -11195,7 +11190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="15.75">
       <c r="A77" s="25" t="s">
         <v>38</v>
       </c>
@@ -11210,7 +11205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="7" t="s">
         <v>39</v>
       </c>
@@ -11225,7 +11220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="7" t="s">
         <v>40</v>
       </c>
@@ -11240,7 +11235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="7" t="s">
         <v>41</v>
       </c>
@@ -11255,7 +11250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="7" t="s">
         <v>42</v>
       </c>
@@ -11270,7 +11265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="15.75">
       <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
@@ -11284,7 +11279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="15.75">
       <c r="A84" s="10" t="s">
         <v>36</v>
       </c>
@@ -11299,14 +11294,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="7"/>
       <c r="B85" s="5"/>
       <c r="C85" s="23"/>
       <c r="D85" s="7"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="7" t="s">
         <v>37</v>
       </c>
@@ -11321,7 +11316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="15.75">
       <c r="A87" s="25" t="s">
         <v>38</v>
       </c>
@@ -11336,7 +11331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="7" t="s">
         <v>39</v>
       </c>
@@ -11351,7 +11346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="7" t="s">
         <v>40</v>
       </c>
@@ -11366,7 +11361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="7" t="s">
         <v>41</v>
       </c>
@@ -11381,7 +11376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" s="7" t="s">
         <v>42</v>
       </c>
@@ -11396,7 +11391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="15.75">
       <c r="A92" s="6" t="s">
         <v>4</v>
       </c>
@@ -11410,7 +11405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="15.75">
       <c r="A94" s="10" t="s">
         <v>36</v>
       </c>
@@ -11425,14 +11420,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="7"/>
       <c r="B95" s="5"/>
       <c r="C95" s="23"/>
       <c r="D95" s="7"/>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="7" t="s">
         <v>37</v>
       </c>
@@ -11447,7 +11442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="15.75">
       <c r="A97" s="25" t="s">
         <v>38</v>
       </c>
@@ -11462,7 +11457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="7" t="s">
         <v>39</v>
       </c>
@@ -11477,7 +11472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" s="7" t="s">
         <v>40</v>
       </c>
@@ -11492,7 +11487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="7" t="s">
         <v>41</v>
       </c>
@@ -11507,7 +11502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="7" t="s">
         <v>42</v>
       </c>
@@ -11522,7 +11517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="15.75">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -11536,7 +11531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="15.75">
       <c r="A104" s="10" t="s">
         <v>36</v>
       </c>
@@ -11551,14 +11546,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="7"/>
       <c r="B105" s="5"/>
       <c r="C105" s="23"/>
       <c r="D105" s="7"/>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="7" t="s">
         <v>37</v>
       </c>
@@ -11573,7 +11568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="15.75">
       <c r="A107" s="25" t="s">
         <v>38</v>
       </c>
@@ -11588,7 +11583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" s="7" t="s">
         <v>39</v>
       </c>
@@ -11603,7 +11598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" s="7" t="s">
         <v>40</v>
       </c>
@@ -11618,7 +11613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" s="7" t="s">
         <v>41</v>
       </c>
@@ -11633,7 +11628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" s="7" t="s">
         <v>42</v>
       </c>
@@ -11648,7 +11643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="15.75">
       <c r="A112" s="6" t="s">
         <v>4</v>
       </c>
@@ -11676,26 +11671,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G7:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="7:7">
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="7:7">
       <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="7:7">
       <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
